--- a/RBLX.xlsx
+++ b/RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD71F253-777F-4483-BCDA-26C070EC7E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A58DC1-0F30-4B84-B713-937D862709A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{88362B84-885C-483A-9E88-67C8EF17C71F}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{88362B84-885C-483A-9E88-67C8EF17C71F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0;[Red]#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;[Red]#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,12 +246,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -260,6 +258,37 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Aral"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aral"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aral"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,18 +312,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,87 +667,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE1561F-513B-42E3-815F-92424C4C99D6}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="9" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="9">
         <v>58.14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9">
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="10">
         <f>618.997327+48.302658</f>
         <v>667.29998499999999</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:9">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="10">
         <f>H3*H2</f>
         <v>38796.821127900002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9">
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <f>711.683+1697.862</f>
         <v>2409.5450000000001</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9">
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="10">
         <v>1006.371</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9">
+      <c r="G7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="10">
         <f>H4+H6-H5</f>
         <v>37393.647127900003</v>
       </c>
@@ -729,25 +766,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B99B75-9C66-43AB-B711-77B54E9477D0}">
   <dimension ref="A1:AH704"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:34">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
@@ -811,8 +849,8 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:34">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="4">
@@ -870,8 +908,8 @@
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:34">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="4">
@@ -929,8 +967,8 @@
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:34">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="4">
@@ -988,8 +1026,8 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:34">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="4">
@@ -1047,8 +1085,8 @@
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:34">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="6">
@@ -1117,8 +1155,8 @@
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:34">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="4">
@@ -1176,8 +1214,8 @@
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:34">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="4">
@@ -1235,8 +1273,8 @@
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:34">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="4">
@@ -1294,8 +1332,8 @@
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:34">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="4">
@@ -1353,8 +1391,8 @@
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:34">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="6">
@@ -1435,8 +1473,8 @@
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:34">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="4">
@@ -1494,8 +1532,8 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:34">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="4">
@@ -1553,8 +1591,8 @@
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:34">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="4">
@@ -1612,8 +1650,8 @@
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:34">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="4">
@@ -1671,8 +1709,8 @@
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:34">
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="6">
@@ -1753,7 +1791,7 @@
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1787,8 +1825,8 @@
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:34">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="4">
@@ -1846,8 +1884,8 @@
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:34">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4">
@@ -1905,8 +1943,8 @@
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:34">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="4">
@@ -1964,8 +2002,8 @@
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:34">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="4">
@@ -2023,8 +2061,8 @@
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="2:34">
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="4"/>
@@ -2066,8 +2104,8 @@
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:34">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="4"/>
@@ -2109,8 +2147,8 @@
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:34">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="4"/>
@@ -2155,8 +2193,8 @@
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:34">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="4"/>
@@ -2198,8 +2236,8 @@
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:34">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="4"/>
@@ -2241,8 +2279,8 @@
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:34">
+      <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="4"/>
@@ -2284,8 +2322,8 @@
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:34">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="4"/>
@@ -2327,8 +2365,8 @@
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:34">
+      <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="4"/>
@@ -2370,8 +2408,8 @@
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:34">
+      <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="4"/>
@@ -2425,8 +2463,8 @@
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:34">
+      <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="4"/>
@@ -2468,8 +2506,8 @@
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:34">
+      <c r="B33" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="4"/>
@@ -2511,8 +2549,8 @@
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:34">
+      <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="4"/>
@@ -2554,8 +2592,8 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:34">
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="4"/>
@@ -2609,8 +2647,8 @@
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:34">
+      <c r="B36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C36" s="4"/>
@@ -2652,8 +2690,8 @@
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:34">
+      <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="4"/>
@@ -2710,8 +2748,8 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:34">
+      <c r="B38" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C38" s="4"/>
@@ -2753,8 +2791,8 @@
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:34">
+      <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="4"/>
@@ -2808,7 +2846,7 @@
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2842,8 +2880,8 @@
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:34">
+      <c r="B41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="4"/>
@@ -2856,27 +2894,27 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="8" t="e">
+      <c r="M41" s="7" t="e">
         <f t="shared" ref="M41:Q41" si="23">+M39/M42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" s="8" t="e">
+      <c r="N41" s="7" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O41" s="8" t="e">
+      <c r="O41" s="7" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P41" s="8" t="e">
+      <c r="P41" s="7" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="7">
         <f t="shared" si="23"/>
         <v>-1.8686922596500906</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R41" s="7">
         <f>+R39/R42</f>
         <v>-1.4446486543255257</v>
       </c>
@@ -2897,8 +2935,8 @@
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:34">
+      <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="4"/>
@@ -2938,7 +2976,7 @@
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2972,7 +3010,7 @@
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3006,7 +3044,7 @@
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3040,7 +3078,7 @@
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3074,7 +3112,7 @@
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3108,7 +3146,7 @@
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -3142,7 +3180,7 @@
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
     </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:34">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -3176,7 +3214,7 @@
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
     </row>
-    <row r="50" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:34">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3210,7 +3248,7 @@
       <c r="AG50" s="4"/>
       <c r="AH50" s="4"/>
     </row>
-    <row r="51" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:34">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3244,7 +3282,7 @@
       <c r="AG51" s="4"/>
       <c r="AH51" s="4"/>
     </row>
-    <row r="52" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:34">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3278,7 +3316,7 @@
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
     </row>
-    <row r="53" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:34">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -3312,7 +3350,7 @@
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
     </row>
-    <row r="54" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:34">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3346,7 +3384,7 @@
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
     </row>
-    <row r="55" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:34">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -3380,7 +3418,7 @@
       <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
     </row>
-    <row r="56" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:34">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -3414,7 +3452,7 @@
       <c r="AG56" s="4"/>
       <c r="AH56" s="4"/>
     </row>
-    <row r="57" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:34">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -3448,7 +3486,7 @@
       <c r="AG57" s="4"/>
       <c r="AH57" s="4"/>
     </row>
-    <row r="58" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:34">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -3482,7 +3520,7 @@
       <c r="AG58" s="4"/>
       <c r="AH58" s="4"/>
     </row>
-    <row r="59" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:34">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -3516,7 +3554,7 @@
       <c r="AG59" s="4"/>
       <c r="AH59" s="4"/>
     </row>
-    <row r="60" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:34">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -3550,7 +3588,7 @@
       <c r="AG60" s="4"/>
       <c r="AH60" s="4"/>
     </row>
-    <row r="61" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:34">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -3584,7 +3622,7 @@
       <c r="AG61" s="4"/>
       <c r="AH61" s="4"/>
     </row>
-    <row r="62" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:34">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -3618,7 +3656,7 @@
       <c r="AG62" s="4"/>
       <c r="AH62" s="4"/>
     </row>
-    <row r="63" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:34">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -3652,7 +3690,7 @@
       <c r="AG63" s="4"/>
       <c r="AH63" s="4"/>
     </row>
-    <row r="64" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:34">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -3686,7 +3724,7 @@
       <c r="AG64" s="4"/>
       <c r="AH64" s="4"/>
     </row>
-    <row r="65" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:34">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3720,7 +3758,7 @@
       <c r="AG65" s="4"/>
       <c r="AH65" s="4"/>
     </row>
-    <row r="66" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:34">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3754,7 +3792,7 @@
       <c r="AG66" s="4"/>
       <c r="AH66" s="4"/>
     </row>
-    <row r="67" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:34">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -3788,7 +3826,7 @@
       <c r="AG67" s="4"/>
       <c r="AH67" s="4"/>
     </row>
-    <row r="68" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:34">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -3822,7 +3860,7 @@
       <c r="AG68" s="4"/>
       <c r="AH68" s="4"/>
     </row>
-    <row r="69" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:34">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3856,7 +3894,7 @@
       <c r="AG69" s="4"/>
       <c r="AH69" s="4"/>
     </row>
-    <row r="70" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:34">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -3890,7 +3928,7 @@
       <c r="AG70" s="4"/>
       <c r="AH70" s="4"/>
     </row>
-    <row r="71" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:34">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3924,7 +3962,7 @@
       <c r="AG71" s="4"/>
       <c r="AH71" s="4"/>
     </row>
-    <row r="72" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:34">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3958,7 +3996,7 @@
       <c r="AG72" s="4"/>
       <c r="AH72" s="4"/>
     </row>
-    <row r="73" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:34">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3992,7 +4030,7 @@
       <c r="AG73" s="4"/>
       <c r="AH73" s="4"/>
     </row>
-    <row r="74" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:34">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -4026,7 +4064,7 @@
       <c r="AG74" s="4"/>
       <c r="AH74" s="4"/>
     </row>
-    <row r="75" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:34">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -4060,7 +4098,7 @@
       <c r="AG75" s="4"/>
       <c r="AH75" s="4"/>
     </row>
-    <row r="76" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:34">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -4094,7 +4132,7 @@
       <c r="AG76" s="4"/>
       <c r="AH76" s="4"/>
     </row>
-    <row r="77" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:34">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4128,7 +4166,7 @@
       <c r="AG77" s="4"/>
       <c r="AH77" s="4"/>
     </row>
-    <row r="78" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:34">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -4162,7 +4200,7 @@
       <c r="AG78" s="4"/>
       <c r="AH78" s="4"/>
     </row>
-    <row r="79" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:34">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -4196,7 +4234,7 @@
       <c r="AG79" s="4"/>
       <c r="AH79" s="4"/>
     </row>
-    <row r="80" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:34">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -4230,7 +4268,7 @@
       <c r="AG80" s="4"/>
       <c r="AH80" s="4"/>
     </row>
-    <row r="81" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:34">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -4264,7 +4302,7 @@
       <c r="AG81" s="4"/>
       <c r="AH81" s="4"/>
     </row>
-    <row r="82" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:34">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -4298,7 +4336,7 @@
       <c r="AG82" s="4"/>
       <c r="AH82" s="4"/>
     </row>
-    <row r="83" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:34">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -4332,7 +4370,7 @@
       <c r="AG83" s="4"/>
       <c r="AH83" s="4"/>
     </row>
-    <row r="84" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:34">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -4366,7 +4404,7 @@
       <c r="AG84" s="4"/>
       <c r="AH84" s="4"/>
     </row>
-    <row r="85" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:34">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -4400,7 +4438,7 @@
       <c r="AG85" s="4"/>
       <c r="AH85" s="4"/>
     </row>
-    <row r="86" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:34">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4434,7 +4472,7 @@
       <c r="AG86" s="4"/>
       <c r="AH86" s="4"/>
     </row>
-    <row r="87" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:34">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4468,7 +4506,7 @@
       <c r="AG87" s="4"/>
       <c r="AH87" s="4"/>
     </row>
-    <row r="88" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:34">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -4502,7 +4540,7 @@
       <c r="AG88" s="4"/>
       <c r="AH88" s="4"/>
     </row>
-    <row r="89" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:34">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4536,7 +4574,7 @@
       <c r="AG89" s="4"/>
       <c r="AH89" s="4"/>
     </row>
-    <row r="90" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:34">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4570,7 +4608,7 @@
       <c r="AG90" s="4"/>
       <c r="AH90" s="4"/>
     </row>
-    <row r="91" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:34">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -4604,7 +4642,7 @@
       <c r="AG91" s="4"/>
       <c r="AH91" s="4"/>
     </row>
-    <row r="92" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:34">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -4638,7 +4676,7 @@
       <c r="AG92" s="4"/>
       <c r="AH92" s="4"/>
     </row>
-    <row r="93" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:34">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -4672,7 +4710,7 @@
       <c r="AG93" s="4"/>
       <c r="AH93" s="4"/>
     </row>
-    <row r="94" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:34">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -4706,7 +4744,7 @@
       <c r="AG94" s="4"/>
       <c r="AH94" s="4"/>
     </row>
-    <row r="95" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:34">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -4740,7 +4778,7 @@
       <c r="AG95" s="4"/>
       <c r="AH95" s="4"/>
     </row>
-    <row r="96" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:34">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -4774,7 +4812,7 @@
       <c r="AG96" s="4"/>
       <c r="AH96" s="4"/>
     </row>
-    <row r="97" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:34">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -4808,7 +4846,7 @@
       <c r="AG97" s="4"/>
       <c r="AH97" s="4"/>
     </row>
-    <row r="98" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:34">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -4842,7 +4880,7 @@
       <c r="AG98" s="4"/>
       <c r="AH98" s="4"/>
     </row>
-    <row r="99" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:34">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -4876,7 +4914,7 @@
       <c r="AG99" s="4"/>
       <c r="AH99" s="4"/>
     </row>
-    <row r="100" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:34">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -4910,7 +4948,7 @@
       <c r="AG100" s="4"/>
       <c r="AH100" s="4"/>
     </row>
-    <row r="101" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:34">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -4944,7 +4982,7 @@
       <c r="AG101" s="4"/>
       <c r="AH101" s="4"/>
     </row>
-    <row r="102" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:34">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -4978,7 +5016,7 @@
       <c r="AG102" s="4"/>
       <c r="AH102" s="4"/>
     </row>
-    <row r="103" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:34">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -5012,7 +5050,7 @@
       <c r="AG103" s="4"/>
       <c r="AH103" s="4"/>
     </row>
-    <row r="104" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:34">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -5046,7 +5084,7 @@
       <c r="AG104" s="4"/>
       <c r="AH104" s="4"/>
     </row>
-    <row r="105" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:34">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -5080,7 +5118,7 @@
       <c r="AG105" s="4"/>
       <c r="AH105" s="4"/>
     </row>
-    <row r="106" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:34">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -5114,7 +5152,7 @@
       <c r="AG106" s="4"/>
       <c r="AH106" s="4"/>
     </row>
-    <row r="107" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:34">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -5148,7 +5186,7 @@
       <c r="AG107" s="4"/>
       <c r="AH107" s="4"/>
     </row>
-    <row r="108" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:34">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -5182,7 +5220,7 @@
       <c r="AG108" s="4"/>
       <c r="AH108" s="4"/>
     </row>
-    <row r="109" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:34">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -5216,7 +5254,7 @@
       <c r="AG109" s="4"/>
       <c r="AH109" s="4"/>
     </row>
-    <row r="110" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:34">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -5250,7 +5288,7 @@
       <c r="AG110" s="4"/>
       <c r="AH110" s="4"/>
     </row>
-    <row r="111" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:34">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -5284,7 +5322,7 @@
       <c r="AG111" s="4"/>
       <c r="AH111" s="4"/>
     </row>
-    <row r="112" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:34">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -5318,7 +5356,7 @@
       <c r="AG112" s="4"/>
       <c r="AH112" s="4"/>
     </row>
-    <row r="113" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:34">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -5352,7 +5390,7 @@
       <c r="AG113" s="4"/>
       <c r="AH113" s="4"/>
     </row>
-    <row r="114" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:34">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -5386,7 +5424,7 @@
       <c r="AG114" s="4"/>
       <c r="AH114" s="4"/>
     </row>
-    <row r="115" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:34">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -5420,7 +5458,7 @@
       <c r="AG115" s="4"/>
       <c r="AH115" s="4"/>
     </row>
-    <row r="116" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:34">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -5454,7 +5492,7 @@
       <c r="AG116" s="4"/>
       <c r="AH116" s="4"/>
     </row>
-    <row r="117" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:34">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -5488,7 +5526,7 @@
       <c r="AG117" s="4"/>
       <c r="AH117" s="4"/>
     </row>
-    <row r="118" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:34">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -5522,7 +5560,7 @@
       <c r="AG118" s="4"/>
       <c r="AH118" s="4"/>
     </row>
-    <row r="119" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:34">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -5556,7 +5594,7 @@
       <c r="AG119" s="4"/>
       <c r="AH119" s="4"/>
     </row>
-    <row r="120" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:34">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -5590,7 +5628,7 @@
       <c r="AG120" s="4"/>
       <c r="AH120" s="4"/>
     </row>
-    <row r="121" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:34">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -5624,7 +5662,7 @@
       <c r="AG121" s="4"/>
       <c r="AH121" s="4"/>
     </row>
-    <row r="122" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:34">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -5658,7 +5696,7 @@
       <c r="AG122" s="4"/>
       <c r="AH122" s="4"/>
     </row>
-    <row r="123" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:34">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -5692,7 +5730,7 @@
       <c r="AG123" s="4"/>
       <c r="AH123" s="4"/>
     </row>
-    <row r="124" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:34">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -5726,7 +5764,7 @@
       <c r="AG124" s="4"/>
       <c r="AH124" s="4"/>
     </row>
-    <row r="125" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:34">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -5760,7 +5798,7 @@
       <c r="AG125" s="4"/>
       <c r="AH125" s="4"/>
     </row>
-    <row r="126" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:34">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -5794,7 +5832,7 @@
       <c r="AG126" s="4"/>
       <c r="AH126" s="4"/>
     </row>
-    <row r="127" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:34">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -5828,7 +5866,7 @@
       <c r="AG127" s="4"/>
       <c r="AH127" s="4"/>
     </row>
-    <row r="128" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:34">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -5862,7 +5900,7 @@
       <c r="AG128" s="4"/>
       <c r="AH128" s="4"/>
     </row>
-    <row r="129" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:34">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -5896,7 +5934,7 @@
       <c r="AG129" s="4"/>
       <c r="AH129" s="4"/>
     </row>
-    <row r="130" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:34">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -5930,7 +5968,7 @@
       <c r="AG130" s="4"/>
       <c r="AH130" s="4"/>
     </row>
-    <row r="131" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:34">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -5964,7 +6002,7 @@
       <c r="AG131" s="4"/>
       <c r="AH131" s="4"/>
     </row>
-    <row r="132" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:34">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -5998,7 +6036,7 @@
       <c r="AG132" s="4"/>
       <c r="AH132" s="4"/>
     </row>
-    <row r="133" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:34">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -6032,7 +6070,7 @@
       <c r="AG133" s="4"/>
       <c r="AH133" s="4"/>
     </row>
-    <row r="134" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:34">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -6066,7 +6104,7 @@
       <c r="AG134" s="4"/>
       <c r="AH134" s="4"/>
     </row>
-    <row r="135" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:34">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -6100,7 +6138,7 @@
       <c r="AG135" s="4"/>
       <c r="AH135" s="4"/>
     </row>
-    <row r="136" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:34">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -6134,7 +6172,7 @@
       <c r="AG136" s="4"/>
       <c r="AH136" s="4"/>
     </row>
-    <row r="137" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:34">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -6168,7 +6206,7 @@
       <c r="AG137" s="4"/>
       <c r="AH137" s="4"/>
     </row>
-    <row r="138" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:34">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -6202,7 +6240,7 @@
       <c r="AG138" s="4"/>
       <c r="AH138" s="4"/>
     </row>
-    <row r="139" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:34">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -6236,7 +6274,7 @@
       <c r="AG139" s="4"/>
       <c r="AH139" s="4"/>
     </row>
-    <row r="140" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:34">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -6270,7 +6308,7 @@
       <c r="AG140" s="4"/>
       <c r="AH140" s="4"/>
     </row>
-    <row r="141" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:34">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -6304,7 +6342,7 @@
       <c r="AG141" s="4"/>
       <c r="AH141" s="4"/>
     </row>
-    <row r="142" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:34">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -6338,7 +6376,7 @@
       <c r="AG142" s="4"/>
       <c r="AH142" s="4"/>
     </row>
-    <row r="143" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:34">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -6372,7 +6410,7 @@
       <c r="AG143" s="4"/>
       <c r="AH143" s="4"/>
     </row>
-    <row r="144" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:34">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -6406,7 +6444,7 @@
       <c r="AG144" s="4"/>
       <c r="AH144" s="4"/>
     </row>
-    <row r="145" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:34">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -6440,7 +6478,7 @@
       <c r="AG145" s="4"/>
       <c r="AH145" s="4"/>
     </row>
-    <row r="146" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:34">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -6474,7 +6512,7 @@
       <c r="AG146" s="4"/>
       <c r="AH146" s="4"/>
     </row>
-    <row r="147" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:34">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -6508,7 +6546,7 @@
       <c r="AG147" s="4"/>
       <c r="AH147" s="4"/>
     </row>
-    <row r="148" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:34">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -6542,7 +6580,7 @@
       <c r="AG148" s="4"/>
       <c r="AH148" s="4"/>
     </row>
-    <row r="149" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:34">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -6576,7 +6614,7 @@
       <c r="AG149" s="4"/>
       <c r="AH149" s="4"/>
     </row>
-    <row r="150" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:34">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -6610,7 +6648,7 @@
       <c r="AG150" s="4"/>
       <c r="AH150" s="4"/>
     </row>
-    <row r="151" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:34">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -6644,7 +6682,7 @@
       <c r="AG151" s="4"/>
       <c r="AH151" s="4"/>
     </row>
-    <row r="152" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:34">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -6678,7 +6716,7 @@
       <c r="AG152" s="4"/>
       <c r="AH152" s="4"/>
     </row>
-    <row r="153" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:34">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -6712,7 +6750,7 @@
       <c r="AG153" s="4"/>
       <c r="AH153" s="4"/>
     </row>
-    <row r="154" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:34">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -6746,7 +6784,7 @@
       <c r="AG154" s="4"/>
       <c r="AH154" s="4"/>
     </row>
-    <row r="155" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:34">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -6780,7 +6818,7 @@
       <c r="AG155" s="4"/>
       <c r="AH155" s="4"/>
     </row>
-    <row r="156" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:34">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -6814,7 +6852,7 @@
       <c r="AG156" s="4"/>
       <c r="AH156" s="4"/>
     </row>
-    <row r="157" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:34">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -6848,7 +6886,7 @@
       <c r="AG157" s="4"/>
       <c r="AH157" s="4"/>
     </row>
-    <row r="158" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:34">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -6882,7 +6920,7 @@
       <c r="AG158" s="4"/>
       <c r="AH158" s="4"/>
     </row>
-    <row r="159" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:34">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -6916,7 +6954,7 @@
       <c r="AG159" s="4"/>
       <c r="AH159" s="4"/>
     </row>
-    <row r="160" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:34">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -6950,7 +6988,7 @@
       <c r="AG160" s="4"/>
       <c r="AH160" s="4"/>
     </row>
-    <row r="161" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:34">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -6984,7 +7022,7 @@
       <c r="AG161" s="4"/>
       <c r="AH161" s="4"/>
     </row>
-    <row r="162" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:34">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -7018,7 +7056,7 @@
       <c r="AG162" s="4"/>
       <c r="AH162" s="4"/>
     </row>
-    <row r="163" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:34">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -7052,7 +7090,7 @@
       <c r="AG163" s="4"/>
       <c r="AH163" s="4"/>
     </row>
-    <row r="164" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:34">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -7086,7 +7124,7 @@
       <c r="AG164" s="4"/>
       <c r="AH164" s="4"/>
     </row>
-    <row r="165" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:34">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -7120,7 +7158,7 @@
       <c r="AG165" s="4"/>
       <c r="AH165" s="4"/>
     </row>
-    <row r="166" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:34">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -7154,7 +7192,7 @@
       <c r="AG166" s="4"/>
       <c r="AH166" s="4"/>
     </row>
-    <row r="167" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:34">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -7188,7 +7226,7 @@
       <c r="AG167" s="4"/>
       <c r="AH167" s="4"/>
     </row>
-    <row r="168" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:34">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -7222,7 +7260,7 @@
       <c r="AG168" s="4"/>
       <c r="AH168" s="4"/>
     </row>
-    <row r="169" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:34">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -7256,7 +7294,7 @@
       <c r="AG169" s="4"/>
       <c r="AH169" s="4"/>
     </row>
-    <row r="170" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:34">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -7290,7 +7328,7 @@
       <c r="AG170" s="4"/>
       <c r="AH170" s="4"/>
     </row>
-    <row r="171" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:34">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -7324,7 +7362,7 @@
       <c r="AG171" s="4"/>
       <c r="AH171" s="4"/>
     </row>
-    <row r="172" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:34">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -7358,7 +7396,7 @@
       <c r="AG172" s="4"/>
       <c r="AH172" s="4"/>
     </row>
-    <row r="173" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:34">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -7392,7 +7430,7 @@
       <c r="AG173" s="4"/>
       <c r="AH173" s="4"/>
     </row>
-    <row r="174" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:34">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -7426,7 +7464,7 @@
       <c r="AG174" s="4"/>
       <c r="AH174" s="4"/>
     </row>
-    <row r="175" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:34">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -7460,7 +7498,7 @@
       <c r="AG175" s="4"/>
       <c r="AH175" s="4"/>
     </row>
-    <row r="176" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:34">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -7494,7 +7532,7 @@
       <c r="AG176" s="4"/>
       <c r="AH176" s="4"/>
     </row>
-    <row r="177" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:34">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -7528,7 +7566,7 @@
       <c r="AG177" s="4"/>
       <c r="AH177" s="4"/>
     </row>
-    <row r="178" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:34">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -7562,7 +7600,7 @@
       <c r="AG178" s="4"/>
       <c r="AH178" s="4"/>
     </row>
-    <row r="179" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:34">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -7596,7 +7634,7 @@
       <c r="AG179" s="4"/>
       <c r="AH179" s="4"/>
     </row>
-    <row r="180" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:34">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -7630,7 +7668,7 @@
       <c r="AG180" s="4"/>
       <c r="AH180" s="4"/>
     </row>
-    <row r="181" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:34">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -7664,7 +7702,7 @@
       <c r="AG181" s="4"/>
       <c r="AH181" s="4"/>
     </row>
-    <row r="182" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:34">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -7698,7 +7736,7 @@
       <c r="AG182" s="4"/>
       <c r="AH182" s="4"/>
     </row>
-    <row r="183" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:34">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -7732,7 +7770,7 @@
       <c r="AG183" s="4"/>
       <c r="AH183" s="4"/>
     </row>
-    <row r="184" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:34">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -7766,7 +7804,7 @@
       <c r="AG184" s="4"/>
       <c r="AH184" s="4"/>
     </row>
-    <row r="185" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:34">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -7800,7 +7838,7 @@
       <c r="AG185" s="4"/>
       <c r="AH185" s="4"/>
     </row>
-    <row r="186" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:34">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -7834,7 +7872,7 @@
       <c r="AG186" s="4"/>
       <c r="AH186" s="4"/>
     </row>
-    <row r="187" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:34">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -7868,7 +7906,7 @@
       <c r="AG187" s="4"/>
       <c r="AH187" s="4"/>
     </row>
-    <row r="188" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:34">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -7902,7 +7940,7 @@
       <c r="AG188" s="4"/>
       <c r="AH188" s="4"/>
     </row>
-    <row r="189" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:34">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -7936,7 +7974,7 @@
       <c r="AG189" s="4"/>
       <c r="AH189" s="4"/>
     </row>
-    <row r="190" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:34">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -7970,7 +8008,7 @@
       <c r="AG190" s="4"/>
       <c r="AH190" s="4"/>
     </row>
-    <row r="191" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:34">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -8004,7 +8042,7 @@
       <c r="AG191" s="4"/>
       <c r="AH191" s="4"/>
     </row>
-    <row r="192" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:34">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -8038,7 +8076,7 @@
       <c r="AG192" s="4"/>
       <c r="AH192" s="4"/>
     </row>
-    <row r="193" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:34">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -8072,7 +8110,7 @@
       <c r="AG193" s="4"/>
       <c r="AH193" s="4"/>
     </row>
-    <row r="194" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:34">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -8106,7 +8144,7 @@
       <c r="AG194" s="4"/>
       <c r="AH194" s="4"/>
     </row>
-    <row r="195" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:34">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -8140,7 +8178,7 @@
       <c r="AG195" s="4"/>
       <c r="AH195" s="4"/>
     </row>
-    <row r="196" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:34">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -8174,7 +8212,7 @@
       <c r="AG196" s="4"/>
       <c r="AH196" s="4"/>
     </row>
-    <row r="197" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:34">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -8208,7 +8246,7 @@
       <c r="AG197" s="4"/>
       <c r="AH197" s="4"/>
     </row>
-    <row r="198" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:34">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -8242,7 +8280,7 @@
       <c r="AG198" s="4"/>
       <c r="AH198" s="4"/>
     </row>
-    <row r="199" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:34">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -8276,7 +8314,7 @@
       <c r="AG199" s="4"/>
       <c r="AH199" s="4"/>
     </row>
-    <row r="200" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:34">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -8310,7 +8348,7 @@
       <c r="AG200" s="4"/>
       <c r="AH200" s="4"/>
     </row>
-    <row r="201" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:34">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -8344,7 +8382,7 @@
       <c r="AG201" s="4"/>
       <c r="AH201" s="4"/>
     </row>
-    <row r="202" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:34">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -8378,7 +8416,7 @@
       <c r="AG202" s="4"/>
       <c r="AH202" s="4"/>
     </row>
-    <row r="203" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:34">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -8412,7 +8450,7 @@
       <c r="AG203" s="4"/>
       <c r="AH203" s="4"/>
     </row>
-    <row r="204" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:34">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -8446,7 +8484,7 @@
       <c r="AG204" s="4"/>
       <c r="AH204" s="4"/>
     </row>
-    <row r="205" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:34">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -8480,7 +8518,7 @@
       <c r="AG205" s="4"/>
       <c r="AH205" s="4"/>
     </row>
-    <row r="206" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:34">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -8514,7 +8552,7 @@
       <c r="AG206" s="4"/>
       <c r="AH206" s="4"/>
     </row>
-    <row r="207" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:34">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -8548,7 +8586,7 @@
       <c r="AG207" s="4"/>
       <c r="AH207" s="4"/>
     </row>
-    <row r="208" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:34">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -8582,7 +8620,7 @@
       <c r="AG208" s="4"/>
       <c r="AH208" s="4"/>
     </row>
-    <row r="209" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:34">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -8616,7 +8654,7 @@
       <c r="AG209" s="4"/>
       <c r="AH209" s="4"/>
     </row>
-    <row r="210" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:34">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -8650,7 +8688,7 @@
       <c r="AG210" s="4"/>
       <c r="AH210" s="4"/>
     </row>
-    <row r="211" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:34">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -8684,7 +8722,7 @@
       <c r="AG211" s="4"/>
       <c r="AH211" s="4"/>
     </row>
-    <row r="212" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:34">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -8718,7 +8756,7 @@
       <c r="AG212" s="4"/>
       <c r="AH212" s="4"/>
     </row>
-    <row r="213" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:34">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -8752,7 +8790,7 @@
       <c r="AG213" s="4"/>
       <c r="AH213" s="4"/>
     </row>
-    <row r="214" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:34">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -8786,7 +8824,7 @@
       <c r="AG214" s="4"/>
       <c r="AH214" s="4"/>
     </row>
-    <row r="215" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:34">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -8820,7 +8858,7 @@
       <c r="AG215" s="4"/>
       <c r="AH215" s="4"/>
     </row>
-    <row r="216" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:34">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -8854,7 +8892,7 @@
       <c r="AG216" s="4"/>
       <c r="AH216" s="4"/>
     </row>
-    <row r="217" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:34">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -8888,7 +8926,7 @@
       <c r="AG217" s="4"/>
       <c r="AH217" s="4"/>
     </row>
-    <row r="218" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:34">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -8922,7 +8960,7 @@
       <c r="AG218" s="4"/>
       <c r="AH218" s="4"/>
     </row>
-    <row r="219" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:34">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -8956,7 +8994,7 @@
       <c r="AG219" s="4"/>
       <c r="AH219" s="4"/>
     </row>
-    <row r="220" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:34">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -8990,7 +9028,7 @@
       <c r="AG220" s="4"/>
       <c r="AH220" s="4"/>
     </row>
-    <row r="221" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:34">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -9024,7 +9062,7 @@
       <c r="AG221" s="4"/>
       <c r="AH221" s="4"/>
     </row>
-    <row r="222" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:34">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -9058,7 +9096,7 @@
       <c r="AG222" s="4"/>
       <c r="AH222" s="4"/>
     </row>
-    <row r="223" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:34">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -9092,7 +9130,7 @@
       <c r="AG223" s="4"/>
       <c r="AH223" s="4"/>
     </row>
-    <row r="224" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:34">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -9126,7 +9164,7 @@
       <c r="AG224" s="4"/>
       <c r="AH224" s="4"/>
     </row>
-    <row r="225" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:34">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -9160,7 +9198,7 @@
       <c r="AG225" s="4"/>
       <c r="AH225" s="4"/>
     </row>
-    <row r="226" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:34">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -9194,7 +9232,7 @@
       <c r="AG226" s="4"/>
       <c r="AH226" s="4"/>
     </row>
-    <row r="227" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:34">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -9228,7 +9266,7 @@
       <c r="AG227" s="4"/>
       <c r="AH227" s="4"/>
     </row>
-    <row r="228" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:34">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -9262,7 +9300,7 @@
       <c r="AG228" s="4"/>
       <c r="AH228" s="4"/>
     </row>
-    <row r="229" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:34">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -9296,7 +9334,7 @@
       <c r="AG229" s="4"/>
       <c r="AH229" s="4"/>
     </row>
-    <row r="230" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:34">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -9330,7 +9368,7 @@
       <c r="AG230" s="4"/>
       <c r="AH230" s="4"/>
     </row>
-    <row r="231" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:34">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -9364,7 +9402,7 @@
       <c r="AG231" s="4"/>
       <c r="AH231" s="4"/>
     </row>
-    <row r="232" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:34">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -9398,7 +9436,7 @@
       <c r="AG232" s="4"/>
       <c r="AH232" s="4"/>
     </row>
-    <row r="233" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:34">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -9432,7 +9470,7 @@
       <c r="AG233" s="4"/>
       <c r="AH233" s="4"/>
     </row>
-    <row r="234" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:34">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -9466,7 +9504,7 @@
       <c r="AG234" s="4"/>
       <c r="AH234" s="4"/>
     </row>
-    <row r="235" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:34">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -9500,7 +9538,7 @@
       <c r="AG235" s="4"/>
       <c r="AH235" s="4"/>
     </row>
-    <row r="236" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:34">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -9534,7 +9572,7 @@
       <c r="AG236" s="4"/>
       <c r="AH236" s="4"/>
     </row>
-    <row r="237" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:34">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -9568,7 +9606,7 @@
       <c r="AG237" s="4"/>
       <c r="AH237" s="4"/>
     </row>
-    <row r="238" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:34">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -9602,7 +9640,7 @@
       <c r="AG238" s="4"/>
       <c r="AH238" s="4"/>
     </row>
-    <row r="239" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:34">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -9636,7 +9674,7 @@
       <c r="AG239" s="4"/>
       <c r="AH239" s="4"/>
     </row>
-    <row r="240" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:34">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -9670,7 +9708,7 @@
       <c r="AG240" s="4"/>
       <c r="AH240" s="4"/>
     </row>
-    <row r="241" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:34">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -9704,7 +9742,7 @@
       <c r="AG241" s="4"/>
       <c r="AH241" s="4"/>
     </row>
-    <row r="242" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:34">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -9738,7 +9776,7 @@
       <c r="AG242" s="4"/>
       <c r="AH242" s="4"/>
     </row>
-    <row r="243" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:34">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -9772,7 +9810,7 @@
       <c r="AG243" s="4"/>
       <c r="AH243" s="4"/>
     </row>
-    <row r="244" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:34">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -9806,7 +9844,7 @@
       <c r="AG244" s="4"/>
       <c r="AH244" s="4"/>
     </row>
-    <row r="245" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:34">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -9840,7 +9878,7 @@
       <c r="AG245" s="4"/>
       <c r="AH245" s="4"/>
     </row>
-    <row r="246" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:34">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -9874,7 +9912,7 @@
       <c r="AG246" s="4"/>
       <c r="AH246" s="4"/>
     </row>
-    <row r="247" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:34">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -9908,7 +9946,7 @@
       <c r="AG247" s="4"/>
       <c r="AH247" s="4"/>
     </row>
-    <row r="248" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:34">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -9942,7 +9980,7 @@
       <c r="AG248" s="4"/>
       <c r="AH248" s="4"/>
     </row>
-    <row r="249" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:34">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -9976,7 +10014,7 @@
       <c r="AG249" s="4"/>
       <c r="AH249" s="4"/>
     </row>
-    <row r="250" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:34">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -10010,7 +10048,7 @@
       <c r="AG250" s="4"/>
       <c r="AH250" s="4"/>
     </row>
-    <row r="251" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:34">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -10044,7 +10082,7 @@
       <c r="AG251" s="4"/>
       <c r="AH251" s="4"/>
     </row>
-    <row r="252" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:34">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -10078,7 +10116,7 @@
       <c r="AG252" s="4"/>
       <c r="AH252" s="4"/>
     </row>
-    <row r="253" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:34">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -10112,7 +10150,7 @@
       <c r="AG253" s="4"/>
       <c r="AH253" s="4"/>
     </row>
-    <row r="254" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:34">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -10146,7 +10184,7 @@
       <c r="AG254" s="4"/>
       <c r="AH254" s="4"/>
     </row>
-    <row r="255" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:34">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -10180,7 +10218,7 @@
       <c r="AG255" s="4"/>
       <c r="AH255" s="4"/>
     </row>
-    <row r="256" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:34">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -10214,7 +10252,7 @@
       <c r="AG256" s="4"/>
       <c r="AH256" s="4"/>
     </row>
-    <row r="257" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:34">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -10248,7 +10286,7 @@
       <c r="AG257" s="4"/>
       <c r="AH257" s="4"/>
     </row>
-    <row r="258" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:34">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -10282,7 +10320,7 @@
       <c r="AG258" s="4"/>
       <c r="AH258" s="4"/>
     </row>
-    <row r="259" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:34">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -10316,7 +10354,7 @@
       <c r="AG259" s="4"/>
       <c r="AH259" s="4"/>
     </row>
-    <row r="260" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:34">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -10350,7 +10388,7 @@
       <c r="AG260" s="4"/>
       <c r="AH260" s="4"/>
     </row>
-    <row r="261" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:34">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -10384,7 +10422,7 @@
       <c r="AG261" s="4"/>
       <c r="AH261" s="4"/>
     </row>
-    <row r="262" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:34">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -10418,7 +10456,7 @@
       <c r="AG262" s="4"/>
       <c r="AH262" s="4"/>
     </row>
-    <row r="263" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:34">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -10452,7 +10490,7 @@
       <c r="AG263" s="4"/>
       <c r="AH263" s="4"/>
     </row>
-    <row r="264" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:34">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -10486,7 +10524,7 @@
       <c r="AG264" s="4"/>
       <c r="AH264" s="4"/>
     </row>
-    <row r="265" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:34">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -10520,7 +10558,7 @@
       <c r="AG265" s="4"/>
       <c r="AH265" s="4"/>
     </row>
-    <row r="266" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:34">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -10554,7 +10592,7 @@
       <c r="AG266" s="4"/>
       <c r="AH266" s="4"/>
     </row>
-    <row r="267" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:34">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -10588,7 +10626,7 @@
       <c r="AG267" s="4"/>
       <c r="AH267" s="4"/>
     </row>
-    <row r="268" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:34">
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -10622,7 +10660,7 @@
       <c r="AG268" s="4"/>
       <c r="AH268" s="4"/>
     </row>
-    <row r="269" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:34">
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -10656,7 +10694,7 @@
       <c r="AG269" s="4"/>
       <c r="AH269" s="4"/>
     </row>
-    <row r="270" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:34">
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -10690,7 +10728,7 @@
       <c r="AG270" s="4"/>
       <c r="AH270" s="4"/>
     </row>
-    <row r="271" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:34">
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -10724,7 +10762,7 @@
       <c r="AG271" s="4"/>
       <c r="AH271" s="4"/>
     </row>
-    <row r="272" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:34">
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -10758,7 +10796,7 @@
       <c r="AG272" s="4"/>
       <c r="AH272" s="4"/>
     </row>
-    <row r="273" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:34">
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -10792,7 +10830,7 @@
       <c r="AG273" s="4"/>
       <c r="AH273" s="4"/>
     </row>
-    <row r="274" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:34">
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -10826,7 +10864,7 @@
       <c r="AG274" s="4"/>
       <c r="AH274" s="4"/>
     </row>
-    <row r="275" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:34">
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -10860,7 +10898,7 @@
       <c r="AG275" s="4"/>
       <c r="AH275" s="4"/>
     </row>
-    <row r="276" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:34">
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -10894,7 +10932,7 @@
       <c r="AG276" s="4"/>
       <c r="AH276" s="4"/>
     </row>
-    <row r="277" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:34">
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -10928,7 +10966,7 @@
       <c r="AG277" s="4"/>
       <c r="AH277" s="4"/>
     </row>
-    <row r="278" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:34">
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -10962,7 +11000,7 @@
       <c r="AG278" s="4"/>
       <c r="AH278" s="4"/>
     </row>
-    <row r="279" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:34">
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -10996,7 +11034,7 @@
       <c r="AG279" s="4"/>
       <c r="AH279" s="4"/>
     </row>
-    <row r="280" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:34">
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -11030,7 +11068,7 @@
       <c r="AG280" s="4"/>
       <c r="AH280" s="4"/>
     </row>
-    <row r="281" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:34">
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -11064,7 +11102,7 @@
       <c r="AG281" s="4"/>
       <c r="AH281" s="4"/>
     </row>
-    <row r="282" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:34">
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -11098,7 +11136,7 @@
       <c r="AG282" s="4"/>
       <c r="AH282" s="4"/>
     </row>
-    <row r="283" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:34">
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -11132,7 +11170,7 @@
       <c r="AG283" s="4"/>
       <c r="AH283" s="4"/>
     </row>
-    <row r="284" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:34">
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -11166,7 +11204,7 @@
       <c r="AG284" s="4"/>
       <c r="AH284" s="4"/>
     </row>
-    <row r="285" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:34">
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -11200,7 +11238,7 @@
       <c r="AG285" s="4"/>
       <c r="AH285" s="4"/>
     </row>
-    <row r="286" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:34">
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -11234,7 +11272,7 @@
       <c r="AG286" s="4"/>
       <c r="AH286" s="4"/>
     </row>
-    <row r="287" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:34">
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -11268,7 +11306,7 @@
       <c r="AG287" s="4"/>
       <c r="AH287" s="4"/>
     </row>
-    <row r="288" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:34">
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -11302,7 +11340,7 @@
       <c r="AG288" s="4"/>
       <c r="AH288" s="4"/>
     </row>
-    <row r="289" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:34">
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -11336,7 +11374,7 @@
       <c r="AG289" s="4"/>
       <c r="AH289" s="4"/>
     </row>
-    <row r="290" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:34">
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -11370,7 +11408,7 @@
       <c r="AG290" s="4"/>
       <c r="AH290" s="4"/>
     </row>
-    <row r="291" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:34">
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -11404,7 +11442,7 @@
       <c r="AG291" s="4"/>
       <c r="AH291" s="4"/>
     </row>
-    <row r="292" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:34">
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -11438,7 +11476,7 @@
       <c r="AG292" s="4"/>
       <c r="AH292" s="4"/>
     </row>
-    <row r="293" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:34">
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -11472,7 +11510,7 @@
       <c r="AG293" s="4"/>
       <c r="AH293" s="4"/>
     </row>
-    <row r="294" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:34">
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -11506,7 +11544,7 @@
       <c r="AG294" s="4"/>
       <c r="AH294" s="4"/>
     </row>
-    <row r="295" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:34">
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -11540,7 +11578,7 @@
       <c r="AG295" s="4"/>
       <c r="AH295" s="4"/>
     </row>
-    <row r="296" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:34">
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -11574,7 +11612,7 @@
       <c r="AG296" s="4"/>
       <c r="AH296" s="4"/>
     </row>
-    <row r="297" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:34">
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -11608,7 +11646,7 @@
       <c r="AG297" s="4"/>
       <c r="AH297" s="4"/>
     </row>
-    <row r="298" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:34">
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -11642,7 +11680,7 @@
       <c r="AG298" s="4"/>
       <c r="AH298" s="4"/>
     </row>
-    <row r="299" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:34">
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -11676,7 +11714,7 @@
       <c r="AG299" s="4"/>
       <c r="AH299" s="4"/>
     </row>
-    <row r="300" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:34">
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -11710,7 +11748,7 @@
       <c r="AG300" s="4"/>
       <c r="AH300" s="4"/>
     </row>
-    <row r="301" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:34">
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -11744,7 +11782,7 @@
       <c r="AG301" s="4"/>
       <c r="AH301" s="4"/>
     </row>
-    <row r="302" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:34">
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -11778,7 +11816,7 @@
       <c r="AG302" s="4"/>
       <c r="AH302" s="4"/>
     </row>
-    <row r="303" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:34">
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -11812,7 +11850,7 @@
       <c r="AG303" s="4"/>
       <c r="AH303" s="4"/>
     </row>
-    <row r="304" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:34">
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -11846,7 +11884,7 @@
       <c r="AG304" s="4"/>
       <c r="AH304" s="4"/>
     </row>
-    <row r="305" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:34">
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -11880,7 +11918,7 @@
       <c r="AG305" s="4"/>
       <c r="AH305" s="4"/>
     </row>
-    <row r="306" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:34">
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -11914,7 +11952,7 @@
       <c r="AG306" s="4"/>
       <c r="AH306" s="4"/>
     </row>
-    <row r="307" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:34">
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -11948,7 +11986,7 @@
       <c r="AG307" s="4"/>
       <c r="AH307" s="4"/>
     </row>
-    <row r="308" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:34">
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -11982,7 +12020,7 @@
       <c r="AG308" s="4"/>
       <c r="AH308" s="4"/>
     </row>
-    <row r="309" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:34">
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -12016,7 +12054,7 @@
       <c r="AG309" s="4"/>
       <c r="AH309" s="4"/>
     </row>
-    <row r="310" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:34">
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -12050,7 +12088,7 @@
       <c r="AG310" s="4"/>
       <c r="AH310" s="4"/>
     </row>
-    <row r="311" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:34">
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -12084,7 +12122,7 @@
       <c r="AG311" s="4"/>
       <c r="AH311" s="4"/>
     </row>
-    <row r="312" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:34">
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -12118,7 +12156,7 @@
       <c r="AG312" s="4"/>
       <c r="AH312" s="4"/>
     </row>
-    <row r="313" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:34">
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -12152,7 +12190,7 @@
       <c r="AG313" s="4"/>
       <c r="AH313" s="4"/>
     </row>
-    <row r="314" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:34">
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -12186,7 +12224,7 @@
       <c r="AG314" s="4"/>
       <c r="AH314" s="4"/>
     </row>
-    <row r="315" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:34">
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -12220,7 +12258,7 @@
       <c r="AG315" s="4"/>
       <c r="AH315" s="4"/>
     </row>
-    <row r="316" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:34">
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -12254,7 +12292,7 @@
       <c r="AG316" s="4"/>
       <c r="AH316" s="4"/>
     </row>
-    <row r="317" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:34">
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -12288,7 +12326,7 @@
       <c r="AG317" s="4"/>
       <c r="AH317" s="4"/>
     </row>
-    <row r="318" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:34">
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -12322,7 +12360,7 @@
       <c r="AG318" s="4"/>
       <c r="AH318" s="4"/>
     </row>
-    <row r="319" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:34">
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -12356,7 +12394,7 @@
       <c r="AG319" s="4"/>
       <c r="AH319" s="4"/>
     </row>
-    <row r="320" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:34">
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -12390,7 +12428,7 @@
       <c r="AG320" s="4"/>
       <c r="AH320" s="4"/>
     </row>
-    <row r="321" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:34">
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -12424,7 +12462,7 @@
       <c r="AG321" s="4"/>
       <c r="AH321" s="4"/>
     </row>
-    <row r="322" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:34">
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -12458,7 +12496,7 @@
       <c r="AG322" s="4"/>
       <c r="AH322" s="4"/>
     </row>
-    <row r="323" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:34">
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -12492,7 +12530,7 @@
       <c r="AG323" s="4"/>
       <c r="AH323" s="4"/>
     </row>
-    <row r="324" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:34">
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -12526,7 +12564,7 @@
       <c r="AG324" s="4"/>
       <c r="AH324" s="4"/>
     </row>
-    <row r="325" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:34">
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -12560,7 +12598,7 @@
       <c r="AG325" s="4"/>
       <c r="AH325" s="4"/>
     </row>
-    <row r="326" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:34">
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -12594,7 +12632,7 @@
       <c r="AG326" s="4"/>
       <c r="AH326" s="4"/>
     </row>
-    <row r="327" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:34">
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -12628,7 +12666,7 @@
       <c r="AG327" s="4"/>
       <c r="AH327" s="4"/>
     </row>
-    <row r="328" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:34">
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -12662,7 +12700,7 @@
       <c r="AG328" s="4"/>
       <c r="AH328" s="4"/>
     </row>
-    <row r="329" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:34">
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -12696,7 +12734,7 @@
       <c r="AG329" s="4"/>
       <c r="AH329" s="4"/>
     </row>
-    <row r="330" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:34">
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -12730,7 +12768,7 @@
       <c r="AG330" s="4"/>
       <c r="AH330" s="4"/>
     </row>
-    <row r="331" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:34">
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -12764,7 +12802,7 @@
       <c r="AG331" s="4"/>
       <c r="AH331" s="4"/>
     </row>
-    <row r="332" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:34">
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -12798,7 +12836,7 @@
       <c r="AG332" s="4"/>
       <c r="AH332" s="4"/>
     </row>
-    <row r="333" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:34">
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -12832,7 +12870,7 @@
       <c r="AG333" s="4"/>
       <c r="AH333" s="4"/>
     </row>
-    <row r="334" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:34">
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -12866,7 +12904,7 @@
       <c r="AG334" s="4"/>
       <c r="AH334" s="4"/>
     </row>
-    <row r="335" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:34">
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -12900,7 +12938,7 @@
       <c r="AG335" s="4"/>
       <c r="AH335" s="4"/>
     </row>
-    <row r="336" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:34">
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -12934,7 +12972,7 @@
       <c r="AG336" s="4"/>
       <c r="AH336" s="4"/>
     </row>
-    <row r="337" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:34">
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -12968,7 +13006,7 @@
       <c r="AG337" s="4"/>
       <c r="AH337" s="4"/>
     </row>
-    <row r="338" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:34">
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -13002,7 +13040,7 @@
       <c r="AG338" s="4"/>
       <c r="AH338" s="4"/>
     </row>
-    <row r="339" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:34">
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -13036,7 +13074,7 @@
       <c r="AG339" s="4"/>
       <c r="AH339" s="4"/>
     </row>
-    <row r="340" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:34">
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -13070,7 +13108,7 @@
       <c r="AG340" s="4"/>
       <c r="AH340" s="4"/>
     </row>
-    <row r="341" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:34">
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -13104,7 +13142,7 @@
       <c r="AG341" s="4"/>
       <c r="AH341" s="4"/>
     </row>
-    <row r="342" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:34">
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -13138,7 +13176,7 @@
       <c r="AG342" s="4"/>
       <c r="AH342" s="4"/>
     </row>
-    <row r="343" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:34">
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -13172,7 +13210,7 @@
       <c r="AG343" s="4"/>
       <c r="AH343" s="4"/>
     </row>
-    <row r="344" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:34">
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -13206,7 +13244,7 @@
       <c r="AG344" s="4"/>
       <c r="AH344" s="4"/>
     </row>
-    <row r="345" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:34">
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -13240,7 +13278,7 @@
       <c r="AG345" s="4"/>
       <c r="AH345" s="4"/>
     </row>
-    <row r="346" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:34">
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -13274,7 +13312,7 @@
       <c r="AG346" s="4"/>
       <c r="AH346" s="4"/>
     </row>
-    <row r="347" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:34">
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -13308,7 +13346,7 @@
       <c r="AG347" s="4"/>
       <c r="AH347" s="4"/>
     </row>
-    <row r="348" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:34">
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -13342,7 +13380,7 @@
       <c r="AG348" s="4"/>
       <c r="AH348" s="4"/>
     </row>
-    <row r="349" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:34">
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -13376,7 +13414,7 @@
       <c r="AG349" s="4"/>
       <c r="AH349" s="4"/>
     </row>
-    <row r="350" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:34">
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -13410,7 +13448,7 @@
       <c r="AG350" s="4"/>
       <c r="AH350" s="4"/>
     </row>
-    <row r="351" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:34">
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -13444,7 +13482,7 @@
       <c r="AG351" s="4"/>
       <c r="AH351" s="4"/>
     </row>
-    <row r="352" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:34">
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -13478,7 +13516,7 @@
       <c r="AG352" s="4"/>
       <c r="AH352" s="4"/>
     </row>
-    <row r="353" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:34">
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -13512,7 +13550,7 @@
       <c r="AG353" s="4"/>
       <c r="AH353" s="4"/>
     </row>
-    <row r="354" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:34">
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -13546,7 +13584,7 @@
       <c r="AG354" s="4"/>
       <c r="AH354" s="4"/>
     </row>
-    <row r="355" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:34">
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -13580,7 +13618,7 @@
       <c r="AG355" s="4"/>
       <c r="AH355" s="4"/>
     </row>
-    <row r="356" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:34">
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -13614,7 +13652,7 @@
       <c r="AG356" s="4"/>
       <c r="AH356" s="4"/>
     </row>
-    <row r="357" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:34">
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -13648,7 +13686,7 @@
       <c r="AG357" s="4"/>
       <c r="AH357" s="4"/>
     </row>
-    <row r="358" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:34">
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -13682,7 +13720,7 @@
       <c r="AG358" s="4"/>
       <c r="AH358" s="4"/>
     </row>
-    <row r="359" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:34">
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -13716,7 +13754,7 @@
       <c r="AG359" s="4"/>
       <c r="AH359" s="4"/>
     </row>
-    <row r="360" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:34">
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -13750,7 +13788,7 @@
       <c r="AG360" s="4"/>
       <c r="AH360" s="4"/>
     </row>
-    <row r="361" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:34">
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -13784,7 +13822,7 @@
       <c r="AG361" s="4"/>
       <c r="AH361" s="4"/>
     </row>
-    <row r="362" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:34">
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -13818,7 +13856,7 @@
       <c r="AG362" s="4"/>
       <c r="AH362" s="4"/>
     </row>
-    <row r="363" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:34">
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -13852,7 +13890,7 @@
       <c r="AG363" s="4"/>
       <c r="AH363" s="4"/>
     </row>
-    <row r="364" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:34">
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -13886,7 +13924,7 @@
       <c r="AG364" s="4"/>
       <c r="AH364" s="4"/>
     </row>
-    <row r="365" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:34">
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -13920,7 +13958,7 @@
       <c r="AG365" s="4"/>
       <c r="AH365" s="4"/>
     </row>
-    <row r="366" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:34">
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -13954,7 +13992,7 @@
       <c r="AG366" s="4"/>
       <c r="AH366" s="4"/>
     </row>
-    <row r="367" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:34">
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -13988,7 +14026,7 @@
       <c r="AG367" s="4"/>
       <c r="AH367" s="4"/>
     </row>
-    <row r="368" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:34">
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -14022,7 +14060,7 @@
       <c r="AG368" s="4"/>
       <c r="AH368" s="4"/>
     </row>
-    <row r="369" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:34">
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -14056,7 +14094,7 @@
       <c r="AG369" s="4"/>
       <c r="AH369" s="4"/>
     </row>
-    <row r="370" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:34">
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -14090,7 +14128,7 @@
       <c r="AG370" s="4"/>
       <c r="AH370" s="4"/>
     </row>
-    <row r="371" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:34">
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -14124,7 +14162,7 @@
       <c r="AG371" s="4"/>
       <c r="AH371" s="4"/>
     </row>
-    <row r="372" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:34">
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -14158,7 +14196,7 @@
       <c r="AG372" s="4"/>
       <c r="AH372" s="4"/>
     </row>
-    <row r="373" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:34">
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -14192,7 +14230,7 @@
       <c r="AG373" s="4"/>
       <c r="AH373" s="4"/>
     </row>
-    <row r="374" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:34">
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -14226,7 +14264,7 @@
       <c r="AG374" s="4"/>
       <c r="AH374" s="4"/>
     </row>
-    <row r="375" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:34">
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -14260,7 +14298,7 @@
       <c r="AG375" s="4"/>
       <c r="AH375" s="4"/>
     </row>
-    <row r="376" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:34">
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -14294,7 +14332,7 @@
       <c r="AG376" s="4"/>
       <c r="AH376" s="4"/>
     </row>
-    <row r="377" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:34">
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -14328,7 +14366,7 @@
       <c r="AG377" s="4"/>
       <c r="AH377" s="4"/>
     </row>
-    <row r="378" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:34">
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -14362,7 +14400,7 @@
       <c r="AG378" s="4"/>
       <c r="AH378" s="4"/>
     </row>
-    <row r="379" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:34">
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -14396,7 +14434,7 @@
       <c r="AG379" s="4"/>
       <c r="AH379" s="4"/>
     </row>
-    <row r="380" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:34">
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -14430,7 +14468,7 @@
       <c r="AG380" s="4"/>
       <c r="AH380" s="4"/>
     </row>
-    <row r="381" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:34">
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -14464,7 +14502,7 @@
       <c r="AG381" s="4"/>
       <c r="AH381" s="4"/>
     </row>
-    <row r="382" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:34">
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -14498,7 +14536,7 @@
       <c r="AG382" s="4"/>
       <c r="AH382" s="4"/>
     </row>
-    <row r="383" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:34">
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -14532,7 +14570,7 @@
       <c r="AG383" s="4"/>
       <c r="AH383" s="4"/>
     </row>
-    <row r="384" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:34">
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -14566,7 +14604,7 @@
       <c r="AG384" s="4"/>
       <c r="AH384" s="4"/>
     </row>
-    <row r="385" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:34">
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -14600,7 +14638,7 @@
       <c r="AG385" s="4"/>
       <c r="AH385" s="4"/>
     </row>
-    <row r="386" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:34">
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -14634,7 +14672,7 @@
       <c r="AG386" s="4"/>
       <c r="AH386" s="4"/>
     </row>
-    <row r="387" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:34">
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -14668,7 +14706,7 @@
       <c r="AG387" s="4"/>
       <c r="AH387" s="4"/>
     </row>
-    <row r="388" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:34">
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -14702,7 +14740,7 @@
       <c r="AG388" s="4"/>
       <c r="AH388" s="4"/>
     </row>
-    <row r="389" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:34">
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -14736,7 +14774,7 @@
       <c r="AG389" s="4"/>
       <c r="AH389" s="4"/>
     </row>
-    <row r="390" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:34">
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -14770,7 +14808,7 @@
       <c r="AG390" s="4"/>
       <c r="AH390" s="4"/>
     </row>
-    <row r="391" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:34">
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -14804,7 +14842,7 @@
       <c r="AG391" s="4"/>
       <c r="AH391" s="4"/>
     </row>
-    <row r="392" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:34">
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -14838,7 +14876,7 @@
       <c r="AG392" s="4"/>
       <c r="AH392" s="4"/>
     </row>
-    <row r="393" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:34">
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -14872,7 +14910,7 @@
       <c r="AG393" s="4"/>
       <c r="AH393" s="4"/>
     </row>
-    <row r="394" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:34">
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -14906,7 +14944,7 @@
       <c r="AG394" s="4"/>
       <c r="AH394" s="4"/>
     </row>
-    <row r="395" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:34">
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -14940,7 +14978,7 @@
       <c r="AG395" s="4"/>
       <c r="AH395" s="4"/>
     </row>
-    <row r="396" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:34">
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -14974,7 +15012,7 @@
       <c r="AG396" s="4"/>
       <c r="AH396" s="4"/>
     </row>
-    <row r="397" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:34">
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -15008,7 +15046,7 @@
       <c r="AG397" s="4"/>
       <c r="AH397" s="4"/>
     </row>
-    <row r="398" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:34">
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -15042,7 +15080,7 @@
       <c r="AG398" s="4"/>
       <c r="AH398" s="4"/>
     </row>
-    <row r="399" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:34">
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -15076,7 +15114,7 @@
       <c r="AG399" s="4"/>
       <c r="AH399" s="4"/>
     </row>
-    <row r="400" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:34">
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -15110,7 +15148,7 @@
       <c r="AG400" s="4"/>
       <c r="AH400" s="4"/>
     </row>
-    <row r="401" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:34">
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -15144,7 +15182,7 @@
       <c r="AG401" s="4"/>
       <c r="AH401" s="4"/>
     </row>
-    <row r="402" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:34">
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -15178,7 +15216,7 @@
       <c r="AG402" s="4"/>
       <c r="AH402" s="4"/>
     </row>
-    <row r="403" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:34">
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -15212,7 +15250,7 @@
       <c r="AG403" s="4"/>
       <c r="AH403" s="4"/>
     </row>
-    <row r="404" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:34">
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -15246,7 +15284,7 @@
       <c r="AG404" s="4"/>
       <c r="AH404" s="4"/>
     </row>
-    <row r="405" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:34">
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -15280,7 +15318,7 @@
       <c r="AG405" s="4"/>
       <c r="AH405" s="4"/>
     </row>
-    <row r="406" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:34">
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -15314,7 +15352,7 @@
       <c r="AG406" s="4"/>
       <c r="AH406" s="4"/>
     </row>
-    <row r="407" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:34">
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -15348,7 +15386,7 @@
       <c r="AG407" s="4"/>
       <c r="AH407" s="4"/>
     </row>
-    <row r="408" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:34">
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -15382,7 +15420,7 @@
       <c r="AG408" s="4"/>
       <c r="AH408" s="4"/>
     </row>
-    <row r="409" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:34">
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -15416,7 +15454,7 @@
       <c r="AG409" s="4"/>
       <c r="AH409" s="4"/>
     </row>
-    <row r="410" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:34">
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -15450,7 +15488,7 @@
       <c r="AG410" s="4"/>
       <c r="AH410" s="4"/>
     </row>
-    <row r="411" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:34">
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -15484,7 +15522,7 @@
       <c r="AG411" s="4"/>
       <c r="AH411" s="4"/>
     </row>
-    <row r="412" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:34">
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -15518,7 +15556,7 @@
       <c r="AG412" s="4"/>
       <c r="AH412" s="4"/>
     </row>
-    <row r="413" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:34">
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -15552,7 +15590,7 @@
       <c r="AG413" s="4"/>
       <c r="AH413" s="4"/>
     </row>
-    <row r="414" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:34">
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -15586,7 +15624,7 @@
       <c r="AG414" s="4"/>
       <c r="AH414" s="4"/>
     </row>
-    <row r="415" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:34">
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -15620,7 +15658,7 @@
       <c r="AG415" s="4"/>
       <c r="AH415" s="4"/>
     </row>
-    <row r="416" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:34">
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -15654,7 +15692,7 @@
       <c r="AG416" s="4"/>
       <c r="AH416" s="4"/>
     </row>
-    <row r="417" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:34">
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -15688,7 +15726,7 @@
       <c r="AG417" s="4"/>
       <c r="AH417" s="4"/>
     </row>
-    <row r="418" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:34">
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -15722,7 +15760,7 @@
       <c r="AG418" s="4"/>
       <c r="AH418" s="4"/>
     </row>
-    <row r="419" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:34">
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -15756,7 +15794,7 @@
       <c r="AG419" s="4"/>
       <c r="AH419" s="4"/>
     </row>
-    <row r="420" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:34">
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -15790,7 +15828,7 @@
       <c r="AG420" s="4"/>
       <c r="AH420" s="4"/>
     </row>
-    <row r="421" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:34">
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -15824,7 +15862,7 @@
       <c r="AG421" s="4"/>
       <c r="AH421" s="4"/>
     </row>
-    <row r="422" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:34">
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -15858,7 +15896,7 @@
       <c r="AG422" s="4"/>
       <c r="AH422" s="4"/>
     </row>
-    <row r="423" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:34">
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -15892,7 +15930,7 @@
       <c r="AG423" s="4"/>
       <c r="AH423" s="4"/>
     </row>
-    <row r="424" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:34">
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -15926,7 +15964,7 @@
       <c r="AG424" s="4"/>
       <c r="AH424" s="4"/>
     </row>
-    <row r="425" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:34">
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -15960,7 +15998,7 @@
       <c r="AG425" s="4"/>
       <c r="AH425" s="4"/>
     </row>
-    <row r="426" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:34">
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -15994,7 +16032,7 @@
       <c r="AG426" s="4"/>
       <c r="AH426" s="4"/>
     </row>
-    <row r="427" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:34">
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -16028,7 +16066,7 @@
       <c r="AG427" s="4"/>
       <c r="AH427" s="4"/>
     </row>
-    <row r="428" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:34">
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -16062,7 +16100,7 @@
       <c r="AG428" s="4"/>
       <c r="AH428" s="4"/>
     </row>
-    <row r="429" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:34">
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -16096,7 +16134,7 @@
       <c r="AG429" s="4"/>
       <c r="AH429" s="4"/>
     </row>
-    <row r="430" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:34">
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -16130,7 +16168,7 @@
       <c r="AG430" s="4"/>
       <c r="AH430" s="4"/>
     </row>
-    <row r="431" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:34">
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -16164,7 +16202,7 @@
       <c r="AG431" s="4"/>
       <c r="AH431" s="4"/>
     </row>
-    <row r="432" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:34">
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -16198,7 +16236,7 @@
       <c r="AG432" s="4"/>
       <c r="AH432" s="4"/>
     </row>
-    <row r="433" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:34">
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -16232,7 +16270,7 @@
       <c r="AG433" s="4"/>
       <c r="AH433" s="4"/>
     </row>
-    <row r="434" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:34">
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -16266,7 +16304,7 @@
       <c r="AG434" s="4"/>
       <c r="AH434" s="4"/>
     </row>
-    <row r="435" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:34">
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -16300,7 +16338,7 @@
       <c r="AG435" s="4"/>
       <c r="AH435" s="4"/>
     </row>
-    <row r="436" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:34">
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -16334,7 +16372,7 @@
       <c r="AG436" s="4"/>
       <c r="AH436" s="4"/>
     </row>
-    <row r="437" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:34">
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -16368,7 +16406,7 @@
       <c r="AG437" s="4"/>
       <c r="AH437" s="4"/>
     </row>
-    <row r="438" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:34">
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -16402,7 +16440,7 @@
       <c r="AG438" s="4"/>
       <c r="AH438" s="4"/>
     </row>
-    <row r="439" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:34">
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -16436,7 +16474,7 @@
       <c r="AG439" s="4"/>
       <c r="AH439" s="4"/>
     </row>
-    <row r="440" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:34">
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -16470,7 +16508,7 @@
       <c r="AG440" s="4"/>
       <c r="AH440" s="4"/>
     </row>
-    <row r="441" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:34">
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -16504,7 +16542,7 @@
       <c r="AG441" s="4"/>
       <c r="AH441" s="4"/>
     </row>
-    <row r="442" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:34">
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -16538,7 +16576,7 @@
       <c r="AG442" s="4"/>
       <c r="AH442" s="4"/>
     </row>
-    <row r="443" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:34">
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -16572,7 +16610,7 @@
       <c r="AG443" s="4"/>
       <c r="AH443" s="4"/>
     </row>
-    <row r="444" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:34">
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -16606,7 +16644,7 @@
       <c r="AG444" s="4"/>
       <c r="AH444" s="4"/>
     </row>
-    <row r="445" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:34">
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -16640,7 +16678,7 @@
       <c r="AG445" s="4"/>
       <c r="AH445" s="4"/>
     </row>
-    <row r="446" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:34">
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -16674,7 +16712,7 @@
       <c r="AG446" s="4"/>
       <c r="AH446" s="4"/>
     </row>
-    <row r="447" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:34">
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -16708,7 +16746,7 @@
       <c r="AG447" s="4"/>
       <c r="AH447" s="4"/>
     </row>
-    <row r="448" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:34">
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -16742,7 +16780,7 @@
       <c r="AG448" s="4"/>
       <c r="AH448" s="4"/>
     </row>
-    <row r="449" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:34">
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -16776,7 +16814,7 @@
       <c r="AG449" s="4"/>
       <c r="AH449" s="4"/>
     </row>
-    <row r="450" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:34">
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -16810,7 +16848,7 @@
       <c r="AG450" s="4"/>
       <c r="AH450" s="4"/>
     </row>
-    <row r="451" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:34">
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -16844,7 +16882,7 @@
       <c r="AG451" s="4"/>
       <c r="AH451" s="4"/>
     </row>
-    <row r="452" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:34">
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -16878,7 +16916,7 @@
       <c r="AG452" s="4"/>
       <c r="AH452" s="4"/>
     </row>
-    <row r="453" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:34">
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -16912,7 +16950,7 @@
       <c r="AG453" s="4"/>
       <c r="AH453" s="4"/>
     </row>
-    <row r="454" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:34">
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -16946,7 +16984,7 @@
       <c r="AG454" s="4"/>
       <c r="AH454" s="4"/>
     </row>
-    <row r="455" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:34">
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -16980,7 +17018,7 @@
       <c r="AG455" s="4"/>
       <c r="AH455" s="4"/>
     </row>
-    <row r="456" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:34">
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -17014,7 +17052,7 @@
       <c r="AG456" s="4"/>
       <c r="AH456" s="4"/>
     </row>
-    <row r="457" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:34">
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -17048,7 +17086,7 @@
       <c r="AG457" s="4"/>
       <c r="AH457" s="4"/>
     </row>
-    <row r="458" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:34">
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -17082,7 +17120,7 @@
       <c r="AG458" s="4"/>
       <c r="AH458" s="4"/>
     </row>
-    <row r="459" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:34">
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -17116,7 +17154,7 @@
       <c r="AG459" s="4"/>
       <c r="AH459" s="4"/>
     </row>
-    <row r="460" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:34">
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -17150,7 +17188,7 @@
       <c r="AG460" s="4"/>
       <c r="AH460" s="4"/>
     </row>
-    <row r="461" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:34">
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -17184,7 +17222,7 @@
       <c r="AG461" s="4"/>
       <c r="AH461" s="4"/>
     </row>
-    <row r="462" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:34">
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -17218,7 +17256,7 @@
       <c r="AG462" s="4"/>
       <c r="AH462" s="4"/>
     </row>
-    <row r="463" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:34">
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -17252,7 +17290,7 @@
       <c r="AG463" s="4"/>
       <c r="AH463" s="4"/>
     </row>
-    <row r="464" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:34">
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -17286,7 +17324,7 @@
       <c r="AG464" s="4"/>
       <c r="AH464" s="4"/>
     </row>
-    <row r="465" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:34">
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -17320,7 +17358,7 @@
       <c r="AG465" s="4"/>
       <c r="AH465" s="4"/>
     </row>
-    <row r="466" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:34">
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -17354,7 +17392,7 @@
       <c r="AG466" s="4"/>
       <c r="AH466" s="4"/>
     </row>
-    <row r="467" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:34">
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -17388,7 +17426,7 @@
       <c r="AG467" s="4"/>
       <c r="AH467" s="4"/>
     </row>
-    <row r="468" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:34">
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -17422,7 +17460,7 @@
       <c r="AG468" s="4"/>
       <c r="AH468" s="4"/>
     </row>
-    <row r="469" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:34">
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -17456,7 +17494,7 @@
       <c r="AG469" s="4"/>
       <c r="AH469" s="4"/>
     </row>
-    <row r="470" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:34">
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -17490,7 +17528,7 @@
       <c r="AG470" s="4"/>
       <c r="AH470" s="4"/>
     </row>
-    <row r="471" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:34">
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -17524,7 +17562,7 @@
       <c r="AG471" s="4"/>
       <c r="AH471" s="4"/>
     </row>
-    <row r="472" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:34">
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -17558,7 +17596,7 @@
       <c r="AG472" s="4"/>
       <c r="AH472" s="4"/>
     </row>
-    <row r="473" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:34">
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -17592,7 +17630,7 @@
       <c r="AG473" s="4"/>
       <c r="AH473" s="4"/>
     </row>
-    <row r="474" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:34">
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -17626,7 +17664,7 @@
       <c r="AG474" s="4"/>
       <c r="AH474" s="4"/>
     </row>
-    <row r="475" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:34">
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -17660,7 +17698,7 @@
       <c r="AG475" s="4"/>
       <c r="AH475" s="4"/>
     </row>
-    <row r="476" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:34">
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -17694,7 +17732,7 @@
       <c r="AG476" s="4"/>
       <c r="AH476" s="4"/>
     </row>
-    <row r="477" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:34">
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -17728,7 +17766,7 @@
       <c r="AG477" s="4"/>
       <c r="AH477" s="4"/>
     </row>
-    <row r="478" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:34">
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -17762,7 +17800,7 @@
       <c r="AG478" s="4"/>
       <c r="AH478" s="4"/>
     </row>
-    <row r="479" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:34">
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -17796,7 +17834,7 @@
       <c r="AG479" s="4"/>
       <c r="AH479" s="4"/>
     </row>
-    <row r="480" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:34">
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -17830,7 +17868,7 @@
       <c r="AG480" s="4"/>
       <c r="AH480" s="4"/>
     </row>
-    <row r="481" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:34">
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -17864,7 +17902,7 @@
       <c r="AG481" s="4"/>
       <c r="AH481" s="4"/>
     </row>
-    <row r="482" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:34">
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -17898,7 +17936,7 @@
       <c r="AG482" s="4"/>
       <c r="AH482" s="4"/>
     </row>
-    <row r="483" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:34">
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -17932,7 +17970,7 @@
       <c r="AG483" s="4"/>
       <c r="AH483" s="4"/>
     </row>
-    <row r="484" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:34">
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -17966,7 +18004,7 @@
       <c r="AG484" s="4"/>
       <c r="AH484" s="4"/>
     </row>
-    <row r="485" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:34">
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -18000,7 +18038,7 @@
       <c r="AG485" s="4"/>
       <c r="AH485" s="4"/>
     </row>
-    <row r="486" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:34">
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -18034,7 +18072,7 @@
       <c r="AG486" s="4"/>
       <c r="AH486" s="4"/>
     </row>
-    <row r="487" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:34">
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -18068,7 +18106,7 @@
       <c r="AG487" s="4"/>
       <c r="AH487" s="4"/>
     </row>
-    <row r="488" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:34">
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -18102,7 +18140,7 @@
       <c r="AG488" s="4"/>
       <c r="AH488" s="4"/>
     </row>
-    <row r="489" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:34">
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -18136,7 +18174,7 @@
       <c r="AG489" s="4"/>
       <c r="AH489" s="4"/>
     </row>
-    <row r="490" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:34">
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -18170,7 +18208,7 @@
       <c r="AG490" s="4"/>
       <c r="AH490" s="4"/>
     </row>
-    <row r="491" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:34">
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -18204,7 +18242,7 @@
       <c r="AG491" s="4"/>
       <c r="AH491" s="4"/>
     </row>
-    <row r="492" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:34">
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -18238,7 +18276,7 @@
       <c r="AG492" s="4"/>
       <c r="AH492" s="4"/>
     </row>
-    <row r="493" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:34">
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -18272,7 +18310,7 @@
       <c r="AG493" s="4"/>
       <c r="AH493" s="4"/>
     </row>
-    <row r="494" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:34">
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -18306,7 +18344,7 @@
       <c r="AG494" s="4"/>
       <c r="AH494" s="4"/>
     </row>
-    <row r="495" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:34">
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -18340,7 +18378,7 @@
       <c r="AG495" s="4"/>
       <c r="AH495" s="4"/>
     </row>
-    <row r="496" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:34">
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -18374,7 +18412,7 @@
       <c r="AG496" s="4"/>
       <c r="AH496" s="4"/>
     </row>
-    <row r="497" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:34">
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -18408,7 +18446,7 @@
       <c r="AG497" s="4"/>
       <c r="AH497" s="4"/>
     </row>
-    <row r="498" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:34">
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -18442,7 +18480,7 @@
       <c r="AG498" s="4"/>
       <c r="AH498" s="4"/>
     </row>
-    <row r="499" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:34">
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -18476,7 +18514,7 @@
       <c r="AG499" s="4"/>
       <c r="AH499" s="4"/>
     </row>
-    <row r="500" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:34">
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -18510,7 +18548,7 @@
       <c r="AG500" s="4"/>
       <c r="AH500" s="4"/>
     </row>
-    <row r="501" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:34">
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -18544,7 +18582,7 @@
       <c r="AG501" s="4"/>
       <c r="AH501" s="4"/>
     </row>
-    <row r="502" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:34">
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -18578,7 +18616,7 @@
       <c r="AG502" s="4"/>
       <c r="AH502" s="4"/>
     </row>
-    <row r="503" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:34">
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -18612,7 +18650,7 @@
       <c r="AG503" s="4"/>
       <c r="AH503" s="4"/>
     </row>
-    <row r="504" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:34">
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -18646,7 +18684,7 @@
       <c r="AG504" s="4"/>
       <c r="AH504" s="4"/>
     </row>
-    <row r="505" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:34">
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -18680,7 +18718,7 @@
       <c r="AG505" s="4"/>
       <c r="AH505" s="4"/>
     </row>
-    <row r="506" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:34">
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -18714,7 +18752,7 @@
       <c r="AG506" s="4"/>
       <c r="AH506" s="4"/>
     </row>
-    <row r="507" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:34">
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -18748,7 +18786,7 @@
       <c r="AG507" s="4"/>
       <c r="AH507" s="4"/>
     </row>
-    <row r="508" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:34">
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -18782,7 +18820,7 @@
       <c r="AG508" s="4"/>
       <c r="AH508" s="4"/>
     </row>
-    <row r="509" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:34">
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -18816,7 +18854,7 @@
       <c r="AG509" s="4"/>
       <c r="AH509" s="4"/>
     </row>
-    <row r="510" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:34">
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -18850,7 +18888,7 @@
       <c r="AG510" s="4"/>
       <c r="AH510" s="4"/>
     </row>
-    <row r="511" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:34">
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -18884,7 +18922,7 @@
       <c r="AG511" s="4"/>
       <c r="AH511" s="4"/>
     </row>
-    <row r="512" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:34">
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -18918,7 +18956,7 @@
       <c r="AG512" s="4"/>
       <c r="AH512" s="4"/>
     </row>
-    <row r="513" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:34">
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -18952,7 +18990,7 @@
       <c r="AG513" s="4"/>
       <c r="AH513" s="4"/>
     </row>
-    <row r="514" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:34">
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -18986,7 +19024,7 @@
       <c r="AG514" s="4"/>
       <c r="AH514" s="4"/>
     </row>
-    <row r="515" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:34">
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -19020,7 +19058,7 @@
       <c r="AG515" s="4"/>
       <c r="AH515" s="4"/>
     </row>
-    <row r="516" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:34">
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -19054,7 +19092,7 @@
       <c r="AG516" s="4"/>
       <c r="AH516" s="4"/>
     </row>
-    <row r="517" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:34">
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -19088,7 +19126,7 @@
       <c r="AG517" s="4"/>
       <c r="AH517" s="4"/>
     </row>
-    <row r="518" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:34">
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -19122,7 +19160,7 @@
       <c r="AG518" s="4"/>
       <c r="AH518" s="4"/>
     </row>
-    <row r="519" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:34">
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -19156,7 +19194,7 @@
       <c r="AG519" s="4"/>
       <c r="AH519" s="4"/>
     </row>
-    <row r="520" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:34">
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -19190,7 +19228,7 @@
       <c r="AG520" s="4"/>
       <c r="AH520" s="4"/>
     </row>
-    <row r="521" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:34">
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -19224,7 +19262,7 @@
       <c r="AG521" s="4"/>
       <c r="AH521" s="4"/>
     </row>
-    <row r="522" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:34">
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -19258,7 +19296,7 @@
       <c r="AG522" s="4"/>
       <c r="AH522" s="4"/>
     </row>
-    <row r="523" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:34">
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -19292,7 +19330,7 @@
       <c r="AG523" s="4"/>
       <c r="AH523" s="4"/>
     </row>
-    <row r="524" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:34">
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -19326,7 +19364,7 @@
       <c r="AG524" s="4"/>
       <c r="AH524" s="4"/>
     </row>
-    <row r="525" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:34">
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -19360,7 +19398,7 @@
       <c r="AG525" s="4"/>
       <c r="AH525" s="4"/>
     </row>
-    <row r="526" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:34">
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -19394,7 +19432,7 @@
       <c r="AG526" s="4"/>
       <c r="AH526" s="4"/>
     </row>
-    <row r="527" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:34">
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -19428,7 +19466,7 @@
       <c r="AG527" s="4"/>
       <c r="AH527" s="4"/>
     </row>
-    <row r="528" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:34">
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -19462,7 +19500,7 @@
       <c r="AG528" s="4"/>
       <c r="AH528" s="4"/>
     </row>
-    <row r="529" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:34">
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -19496,7 +19534,7 @@
       <c r="AG529" s="4"/>
       <c r="AH529" s="4"/>
     </row>
-    <row r="530" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:34">
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -19530,7 +19568,7 @@
       <c r="AG530" s="4"/>
       <c r="AH530" s="4"/>
     </row>
-    <row r="531" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:34">
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -19564,7 +19602,7 @@
       <c r="AG531" s="4"/>
       <c r="AH531" s="4"/>
     </row>
-    <row r="532" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:34">
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -19598,7 +19636,7 @@
       <c r="AG532" s="4"/>
       <c r="AH532" s="4"/>
     </row>
-    <row r="533" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:34">
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -19632,7 +19670,7 @@
       <c r="AG533" s="4"/>
       <c r="AH533" s="4"/>
     </row>
-    <row r="534" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:34">
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -19666,7 +19704,7 @@
       <c r="AG534" s="4"/>
       <c r="AH534" s="4"/>
     </row>
-    <row r="535" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:34">
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -19700,7 +19738,7 @@
       <c r="AG535" s="4"/>
       <c r="AH535" s="4"/>
     </row>
-    <row r="536" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:34">
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -19734,7 +19772,7 @@
       <c r="AG536" s="4"/>
       <c r="AH536" s="4"/>
     </row>
-    <row r="537" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:34">
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -19768,7 +19806,7 @@
       <c r="AG537" s="4"/>
       <c r="AH537" s="4"/>
     </row>
-    <row r="538" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:34">
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -19802,7 +19840,7 @@
       <c r="AG538" s="4"/>
       <c r="AH538" s="4"/>
     </row>
-    <row r="539" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:34">
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -19836,7 +19874,7 @@
       <c r="AG539" s="4"/>
       <c r="AH539" s="4"/>
     </row>
-    <row r="540" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:34">
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -19870,7 +19908,7 @@
       <c r="AG540" s="4"/>
       <c r="AH540" s="4"/>
     </row>
-    <row r="541" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:34">
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -19904,7 +19942,7 @@
       <c r="AG541" s="4"/>
       <c r="AH541" s="4"/>
     </row>
-    <row r="542" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:34">
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -19938,7 +19976,7 @@
       <c r="AG542" s="4"/>
       <c r="AH542" s="4"/>
     </row>
-    <row r="543" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:34">
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -19972,7 +20010,7 @@
       <c r="AG543" s="4"/>
       <c r="AH543" s="4"/>
     </row>
-    <row r="544" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:34">
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -20006,7 +20044,7 @@
       <c r="AG544" s="4"/>
       <c r="AH544" s="4"/>
     </row>
-    <row r="545" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:34">
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -20040,7 +20078,7 @@
       <c r="AG545" s="4"/>
       <c r="AH545" s="4"/>
     </row>
-    <row r="546" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:34">
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -20074,7 +20112,7 @@
       <c r="AG546" s="4"/>
       <c r="AH546" s="4"/>
     </row>
-    <row r="547" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:34">
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -20108,7 +20146,7 @@
       <c r="AG547" s="4"/>
       <c r="AH547" s="4"/>
     </row>
-    <row r="548" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:34">
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
@@ -20142,7 +20180,7 @@
       <c r="AG548" s="4"/>
       <c r="AH548" s="4"/>
     </row>
-    <row r="549" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:34">
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
@@ -20176,7 +20214,7 @@
       <c r="AG549" s="4"/>
       <c r="AH549" s="4"/>
     </row>
-    <row r="550" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:34">
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -20210,7 +20248,7 @@
       <c r="AG550" s="4"/>
       <c r="AH550" s="4"/>
     </row>
-    <row r="551" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:34">
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
@@ -20244,7 +20282,7 @@
       <c r="AG551" s="4"/>
       <c r="AH551" s="4"/>
     </row>
-    <row r="552" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:34">
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
@@ -20278,7 +20316,7 @@
       <c r="AG552" s="4"/>
       <c r="AH552" s="4"/>
     </row>
-    <row r="553" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:34">
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
@@ -20312,7 +20350,7 @@
       <c r="AG553" s="4"/>
       <c r="AH553" s="4"/>
     </row>
-    <row r="554" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:34">
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
@@ -20346,7 +20384,7 @@
       <c r="AG554" s="4"/>
       <c r="AH554" s="4"/>
     </row>
-    <row r="555" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:34">
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
@@ -20380,7 +20418,7 @@
       <c r="AG555" s="4"/>
       <c r="AH555" s="4"/>
     </row>
-    <row r="556" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:34">
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
@@ -20414,7 +20452,7 @@
       <c r="AG556" s="4"/>
       <c r="AH556" s="4"/>
     </row>
-    <row r="557" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:34">
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
@@ -20448,7 +20486,7 @@
       <c r="AG557" s="4"/>
       <c r="AH557" s="4"/>
     </row>
-    <row r="558" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:34">
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -20482,7 +20520,7 @@
       <c r="AG558" s="4"/>
       <c r="AH558" s="4"/>
     </row>
-    <row r="559" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:34">
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
@@ -20516,7 +20554,7 @@
       <c r="AG559" s="4"/>
       <c r="AH559" s="4"/>
     </row>
-    <row r="560" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:34">
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
@@ -20550,7 +20588,7 @@
       <c r="AG560" s="4"/>
       <c r="AH560" s="4"/>
     </row>
-    <row r="561" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:34">
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
@@ -20584,7 +20622,7 @@
       <c r="AG561" s="4"/>
       <c r="AH561" s="4"/>
     </row>
-    <row r="562" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:34">
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
@@ -20618,7 +20656,7 @@
       <c r="AG562" s="4"/>
       <c r="AH562" s="4"/>
     </row>
-    <row r="563" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:34">
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
@@ -20652,7 +20690,7 @@
       <c r="AG563" s="4"/>
       <c r="AH563" s="4"/>
     </row>
-    <row r="564" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:34">
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
@@ -20686,7 +20724,7 @@
       <c r="AG564" s="4"/>
       <c r="AH564" s="4"/>
     </row>
-    <row r="565" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:34">
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
@@ -20720,7 +20758,7 @@
       <c r="AG565" s="4"/>
       <c r="AH565" s="4"/>
     </row>
-    <row r="566" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:34">
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
@@ -20754,7 +20792,7 @@
       <c r="AG566" s="4"/>
       <c r="AH566" s="4"/>
     </row>
-    <row r="567" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:34">
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
@@ -20788,7 +20826,7 @@
       <c r="AG567" s="4"/>
       <c r="AH567" s="4"/>
     </row>
-    <row r="568" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:34">
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
@@ -20822,7 +20860,7 @@
       <c r="AG568" s="4"/>
       <c r="AH568" s="4"/>
     </row>
-    <row r="569" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:34">
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -20856,7 +20894,7 @@
       <c r="AG569" s="4"/>
       <c r="AH569" s="4"/>
     </row>
-    <row r="570" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:34">
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
@@ -20890,7 +20928,7 @@
       <c r="AG570" s="4"/>
       <c r="AH570" s="4"/>
     </row>
-    <row r="571" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:34">
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
@@ -20924,7 +20962,7 @@
       <c r="AG571" s="4"/>
       <c r="AH571" s="4"/>
     </row>
-    <row r="572" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:34">
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
@@ -20958,7 +20996,7 @@
       <c r="AG572" s="4"/>
       <c r="AH572" s="4"/>
     </row>
-    <row r="573" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:34">
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
@@ -20992,7 +21030,7 @@
       <c r="AG573" s="4"/>
       <c r="AH573" s="4"/>
     </row>
-    <row r="574" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:34">
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
@@ -21026,7 +21064,7 @@
       <c r="AG574" s="4"/>
       <c r="AH574" s="4"/>
     </row>
-    <row r="575" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:34">
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
@@ -21060,7 +21098,7 @@
       <c r="AG575" s="4"/>
       <c r="AH575" s="4"/>
     </row>
-    <row r="576" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:34">
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
@@ -21094,7 +21132,7 @@
       <c r="AG576" s="4"/>
       <c r="AH576" s="4"/>
     </row>
-    <row r="577" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:34">
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -21128,7 +21166,7 @@
       <c r="AG577" s="4"/>
       <c r="AH577" s="4"/>
     </row>
-    <row r="578" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:34">
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
@@ -21162,7 +21200,7 @@
       <c r="AG578" s="4"/>
       <c r="AH578" s="4"/>
     </row>
-    <row r="579" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:34">
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
@@ -21196,7 +21234,7 @@
       <c r="AG579" s="4"/>
       <c r="AH579" s="4"/>
     </row>
-    <row r="580" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:34">
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
@@ -21230,7 +21268,7 @@
       <c r="AG580" s="4"/>
       <c r="AH580" s="4"/>
     </row>
-    <row r="581" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:34">
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
@@ -21264,7 +21302,7 @@
       <c r="AG581" s="4"/>
       <c r="AH581" s="4"/>
     </row>
-    <row r="582" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:34">
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
@@ -21298,7 +21336,7 @@
       <c r="AG582" s="4"/>
       <c r="AH582" s="4"/>
     </row>
-    <row r="583" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:34">
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
@@ -21332,7 +21370,7 @@
       <c r="AG583" s="4"/>
       <c r="AH583" s="4"/>
     </row>
-    <row r="584" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:34">
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
@@ -21366,7 +21404,7 @@
       <c r="AG584" s="4"/>
       <c r="AH584" s="4"/>
     </row>
-    <row r="585" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:34">
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
@@ -21400,7 +21438,7 @@
       <c r="AG585" s="4"/>
       <c r="AH585" s="4"/>
     </row>
-    <row r="586" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:34">
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
@@ -21434,7 +21472,7 @@
       <c r="AG586" s="4"/>
       <c r="AH586" s="4"/>
     </row>
-    <row r="587" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:34">
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
@@ -21468,7 +21506,7 @@
       <c r="AG587" s="4"/>
       <c r="AH587" s="4"/>
     </row>
-    <row r="588" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:34">
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
@@ -21502,7 +21540,7 @@
       <c r="AG588" s="4"/>
       <c r="AH588" s="4"/>
     </row>
-    <row r="589" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:34">
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
@@ -21536,7 +21574,7 @@
       <c r="AG589" s="4"/>
       <c r="AH589" s="4"/>
     </row>
-    <row r="590" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:34">
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
@@ -21570,7 +21608,7 @@
       <c r="AG590" s="4"/>
       <c r="AH590" s="4"/>
     </row>
-    <row r="591" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:34">
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
@@ -21604,7 +21642,7 @@
       <c r="AG591" s="4"/>
       <c r="AH591" s="4"/>
     </row>
-    <row r="592" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:34">
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -21638,7 +21676,7 @@
       <c r="AG592" s="4"/>
       <c r="AH592" s="4"/>
     </row>
-    <row r="593" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:34">
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
@@ -21672,7 +21710,7 @@
       <c r="AG593" s="4"/>
       <c r="AH593" s="4"/>
     </row>
-    <row r="594" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:34">
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
@@ -21706,7 +21744,7 @@
       <c r="AG594" s="4"/>
       <c r="AH594" s="4"/>
     </row>
-    <row r="595" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:34">
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
@@ -21740,7 +21778,7 @@
       <c r="AG595" s="4"/>
       <c r="AH595" s="4"/>
     </row>
-    <row r="596" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:34">
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
@@ -21774,7 +21812,7 @@
       <c r="AG596" s="4"/>
       <c r="AH596" s="4"/>
     </row>
-    <row r="597" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:34">
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
@@ -21808,7 +21846,7 @@
       <c r="AG597" s="4"/>
       <c r="AH597" s="4"/>
     </row>
-    <row r="598" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:34">
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
@@ -21842,7 +21880,7 @@
       <c r="AG598" s="4"/>
       <c r="AH598" s="4"/>
     </row>
-    <row r="599" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:34">
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
@@ -21876,7 +21914,7 @@
       <c r="AG599" s="4"/>
       <c r="AH599" s="4"/>
     </row>
-    <row r="600" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:34">
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
@@ -21910,7 +21948,7 @@
       <c r="AG600" s="4"/>
       <c r="AH600" s="4"/>
     </row>
-    <row r="601" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:34">
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
@@ -21944,7 +21982,7 @@
       <c r="AG601" s="4"/>
       <c r="AH601" s="4"/>
     </row>
-    <row r="602" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:34">
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
@@ -21978,7 +22016,7 @@
       <c r="AG602" s="4"/>
       <c r="AH602" s="4"/>
     </row>
-    <row r="603" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:34">
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
@@ -22012,7 +22050,7 @@
       <c r="AG603" s="4"/>
       <c r="AH603" s="4"/>
     </row>
-    <row r="604" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:34">
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
@@ -22046,7 +22084,7 @@
       <c r="AG604" s="4"/>
       <c r="AH604" s="4"/>
     </row>
-    <row r="605" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:34">
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
@@ -22080,7 +22118,7 @@
       <c r="AG605" s="4"/>
       <c r="AH605" s="4"/>
     </row>
-    <row r="606" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:34">
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
@@ -22114,7 +22152,7 @@
       <c r="AG606" s="4"/>
       <c r="AH606" s="4"/>
     </row>
-    <row r="607" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:34">
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
@@ -22148,7 +22186,7 @@
       <c r="AG607" s="4"/>
       <c r="AH607" s="4"/>
     </row>
-    <row r="608" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:34">
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
@@ -22182,7 +22220,7 @@
       <c r="AG608" s="4"/>
       <c r="AH608" s="4"/>
     </row>
-    <row r="609" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:34">
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
@@ -22216,7 +22254,7 @@
       <c r="AG609" s="4"/>
       <c r="AH609" s="4"/>
     </row>
-    <row r="610" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:34">
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
@@ -22250,7 +22288,7 @@
       <c r="AG610" s="4"/>
       <c r="AH610" s="4"/>
     </row>
-    <row r="611" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:34">
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
@@ -22284,7 +22322,7 @@
       <c r="AG611" s="4"/>
       <c r="AH611" s="4"/>
     </row>
-    <row r="612" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:34">
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
@@ -22318,7 +22356,7 @@
       <c r="AG612" s="4"/>
       <c r="AH612" s="4"/>
     </row>
-    <row r="613" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:34">
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
@@ -22352,7 +22390,7 @@
       <c r="AG613" s="4"/>
       <c r="AH613" s="4"/>
     </row>
-    <row r="614" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:34">
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
@@ -22386,7 +22424,7 @@
       <c r="AG614" s="4"/>
       <c r="AH614" s="4"/>
     </row>
-    <row r="615" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:34">
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
@@ -22420,7 +22458,7 @@
       <c r="AG615" s="4"/>
       <c r="AH615" s="4"/>
     </row>
-    <row r="616" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:34">
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
@@ -22454,7 +22492,7 @@
       <c r="AG616" s="4"/>
       <c r="AH616" s="4"/>
     </row>
-    <row r="617" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:34">
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
@@ -22488,7 +22526,7 @@
       <c r="AG617" s="4"/>
       <c r="AH617" s="4"/>
     </row>
-    <row r="618" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:34">
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
@@ -22522,7 +22560,7 @@
       <c r="AG618" s="4"/>
       <c r="AH618" s="4"/>
     </row>
-    <row r="619" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:34">
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
@@ -22556,7 +22594,7 @@
       <c r="AG619" s="4"/>
       <c r="AH619" s="4"/>
     </row>
-    <row r="620" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:34">
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
@@ -22590,7 +22628,7 @@
       <c r="AG620" s="4"/>
       <c r="AH620" s="4"/>
     </row>
-    <row r="621" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:34">
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
@@ -22624,7 +22662,7 @@
       <c r="AG621" s="4"/>
       <c r="AH621" s="4"/>
     </row>
-    <row r="622" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:34">
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
@@ -22658,7 +22696,7 @@
       <c r="AG622" s="4"/>
       <c r="AH622" s="4"/>
     </row>
-    <row r="623" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:34">
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
@@ -22692,7 +22730,7 @@
       <c r="AG623" s="4"/>
       <c r="AH623" s="4"/>
     </row>
-    <row r="624" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:34">
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
@@ -22726,7 +22764,7 @@
       <c r="AG624" s="4"/>
       <c r="AH624" s="4"/>
     </row>
-    <row r="625" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:34">
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
@@ -22760,7 +22798,7 @@
       <c r="AG625" s="4"/>
       <c r="AH625" s="4"/>
     </row>
-    <row r="626" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:34">
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
@@ -22794,7 +22832,7 @@
       <c r="AG626" s="4"/>
       <c r="AH626" s="4"/>
     </row>
-    <row r="627" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:34">
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
@@ -22828,7 +22866,7 @@
       <c r="AG627" s="4"/>
       <c r="AH627" s="4"/>
     </row>
-    <row r="628" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:34">
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
@@ -22862,7 +22900,7 @@
       <c r="AG628" s="4"/>
       <c r="AH628" s="4"/>
     </row>
-    <row r="629" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:34">
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
@@ -22896,7 +22934,7 @@
       <c r="AG629" s="4"/>
       <c r="AH629" s="4"/>
     </row>
-    <row r="630" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:34">
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
@@ -22930,7 +22968,7 @@
       <c r="AG630" s="4"/>
       <c r="AH630" s="4"/>
     </row>
-    <row r="631" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:34">
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
@@ -22964,7 +23002,7 @@
       <c r="AG631" s="4"/>
       <c r="AH631" s="4"/>
     </row>
-    <row r="632" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:34">
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
@@ -22998,7 +23036,7 @@
       <c r="AG632" s="4"/>
       <c r="AH632" s="4"/>
     </row>
-    <row r="633" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:34">
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
@@ -23032,7 +23070,7 @@
       <c r="AG633" s="4"/>
       <c r="AH633" s="4"/>
     </row>
-    <row r="634" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:34">
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
@@ -23066,7 +23104,7 @@
       <c r="AG634" s="4"/>
       <c r="AH634" s="4"/>
     </row>
-    <row r="635" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:34">
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
@@ -23100,7 +23138,7 @@
       <c r="AG635" s="4"/>
       <c r="AH635" s="4"/>
     </row>
-    <row r="636" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:34">
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
@@ -23134,7 +23172,7 @@
       <c r="AG636" s="4"/>
       <c r="AH636" s="4"/>
     </row>
-    <row r="637" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:34">
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
@@ -23168,7 +23206,7 @@
       <c r="AG637" s="4"/>
       <c r="AH637" s="4"/>
     </row>
-    <row r="638" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:34">
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
@@ -23202,7 +23240,7 @@
       <c r="AG638" s="4"/>
       <c r="AH638" s="4"/>
     </row>
-    <row r="639" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:34">
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
@@ -23236,7 +23274,7 @@
       <c r="AG639" s="4"/>
       <c r="AH639" s="4"/>
     </row>
-    <row r="640" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:34">
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
@@ -23270,7 +23308,7 @@
       <c r="AG640" s="4"/>
       <c r="AH640" s="4"/>
     </row>
-    <row r="641" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:34">
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
@@ -23304,7 +23342,7 @@
       <c r="AG641" s="4"/>
       <c r="AH641" s="4"/>
     </row>
-    <row r="642" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:34">
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
@@ -23338,7 +23376,7 @@
       <c r="AG642" s="4"/>
       <c r="AH642" s="4"/>
     </row>
-    <row r="643" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:34">
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
@@ -23372,7 +23410,7 @@
       <c r="AG643" s="4"/>
       <c r="AH643" s="4"/>
     </row>
-    <row r="644" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:34">
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
@@ -23406,7 +23444,7 @@
       <c r="AG644" s="4"/>
       <c r="AH644" s="4"/>
     </row>
-    <row r="645" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:34">
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
@@ -23440,7 +23478,7 @@
       <c r="AG645" s="4"/>
       <c r="AH645" s="4"/>
     </row>
-    <row r="646" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:34">
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
@@ -23474,7 +23512,7 @@
       <c r="AG646" s="4"/>
       <c r="AH646" s="4"/>
     </row>
-    <row r="647" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:34">
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
@@ -23508,7 +23546,7 @@
       <c r="AG647" s="4"/>
       <c r="AH647" s="4"/>
     </row>
-    <row r="648" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:34">
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
@@ -23542,7 +23580,7 @@
       <c r="AG648" s="4"/>
       <c r="AH648" s="4"/>
     </row>
-    <row r="649" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:34">
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
@@ -23576,7 +23614,7 @@
       <c r="AG649" s="4"/>
       <c r="AH649" s="4"/>
     </row>
-    <row r="650" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:34">
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
@@ -23610,7 +23648,7 @@
       <c r="AG650" s="4"/>
       <c r="AH650" s="4"/>
     </row>
-    <row r="651" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:34">
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
@@ -23644,7 +23682,7 @@
       <c r="AG651" s="4"/>
       <c r="AH651" s="4"/>
     </row>
-    <row r="652" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:34">
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
@@ -23678,7 +23716,7 @@
       <c r="AG652" s="4"/>
       <c r="AH652" s="4"/>
     </row>
-    <row r="653" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:34">
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
@@ -23712,7 +23750,7 @@
       <c r="AG653" s="4"/>
       <c r="AH653" s="4"/>
     </row>
-    <row r="654" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:34">
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
@@ -23746,7 +23784,7 @@
       <c r="AG654" s="4"/>
       <c r="AH654" s="4"/>
     </row>
-    <row r="655" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:34">
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
@@ -23780,7 +23818,7 @@
       <c r="AG655" s="4"/>
       <c r="AH655" s="4"/>
     </row>
-    <row r="656" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:34">
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
@@ -23814,7 +23852,7 @@
       <c r="AG656" s="4"/>
       <c r="AH656" s="4"/>
     </row>
-    <row r="657" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:34">
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
@@ -23848,7 +23886,7 @@
       <c r="AG657" s="4"/>
       <c r="AH657" s="4"/>
     </row>
-    <row r="658" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:34">
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
@@ -23882,7 +23920,7 @@
       <c r="AG658" s="4"/>
       <c r="AH658" s="4"/>
     </row>
-    <row r="659" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:34">
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
@@ -23916,7 +23954,7 @@
       <c r="AG659" s="4"/>
       <c r="AH659" s="4"/>
     </row>
-    <row r="660" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:34">
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
@@ -23950,7 +23988,7 @@
       <c r="AG660" s="4"/>
       <c r="AH660" s="4"/>
     </row>
-    <row r="661" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:34">
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
@@ -23984,7 +24022,7 @@
       <c r="AG661" s="4"/>
       <c r="AH661" s="4"/>
     </row>
-    <row r="662" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:34">
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
@@ -24018,7 +24056,7 @@
       <c r="AG662" s="4"/>
       <c r="AH662" s="4"/>
     </row>
-    <row r="663" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:34">
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
@@ -24052,7 +24090,7 @@
       <c r="AG663" s="4"/>
       <c r="AH663" s="4"/>
     </row>
-    <row r="664" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:34">
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
@@ -24086,7 +24124,7 @@
       <c r="AG664" s="4"/>
       <c r="AH664" s="4"/>
     </row>
-    <row r="665" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:34">
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
@@ -24120,7 +24158,7 @@
       <c r="AG665" s="4"/>
       <c r="AH665" s="4"/>
     </row>
-    <row r="666" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:34">
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
@@ -24154,7 +24192,7 @@
       <c r="AG666" s="4"/>
       <c r="AH666" s="4"/>
     </row>
-    <row r="667" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:34">
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
@@ -24188,7 +24226,7 @@
       <c r="AG667" s="4"/>
       <c r="AH667" s="4"/>
     </row>
-    <row r="668" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:34">
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
@@ -24222,7 +24260,7 @@
       <c r="AG668" s="4"/>
       <c r="AH668" s="4"/>
     </row>
-    <row r="669" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:34">
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
@@ -24256,7 +24294,7 @@
       <c r="AG669" s="4"/>
       <c r="AH669" s="4"/>
     </row>
-    <row r="670" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:34">
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
@@ -24290,7 +24328,7 @@
       <c r="AG670" s="4"/>
       <c r="AH670" s="4"/>
     </row>
-    <row r="671" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:34">
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
@@ -24324,7 +24362,7 @@
       <c r="AG671" s="4"/>
       <c r="AH671" s="4"/>
     </row>
-    <row r="672" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:34">
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
@@ -24358,7 +24396,7 @@
       <c r="AG672" s="4"/>
       <c r="AH672" s="4"/>
     </row>
-    <row r="673" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:34">
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
@@ -24392,7 +24430,7 @@
       <c r="AG673" s="4"/>
       <c r="AH673" s="4"/>
     </row>
-    <row r="674" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:34">
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
@@ -24426,7 +24464,7 @@
       <c r="AG674" s="4"/>
       <c r="AH674" s="4"/>
     </row>
-    <row r="675" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:34">
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
@@ -24460,7 +24498,7 @@
       <c r="AG675" s="4"/>
       <c r="AH675" s="4"/>
     </row>
-    <row r="676" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:34">
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
@@ -24494,7 +24532,7 @@
       <c r="AG676" s="4"/>
       <c r="AH676" s="4"/>
     </row>
-    <row r="677" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:34">
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
@@ -24528,7 +24566,7 @@
       <c r="AG677" s="4"/>
       <c r="AH677" s="4"/>
     </row>
-    <row r="678" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:34">
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
@@ -24562,7 +24600,7 @@
       <c r="AG678" s="4"/>
       <c r="AH678" s="4"/>
     </row>
-    <row r="679" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:34">
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
@@ -24596,7 +24634,7 @@
       <c r="AG679" s="4"/>
       <c r="AH679" s="4"/>
     </row>
-    <row r="680" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:34">
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
@@ -24630,7 +24668,7 @@
       <c r="AG680" s="4"/>
       <c r="AH680" s="4"/>
     </row>
-    <row r="681" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:34">
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
@@ -24664,7 +24702,7 @@
       <c r="AG681" s="4"/>
       <c r="AH681" s="4"/>
     </row>
-    <row r="682" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:34">
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
@@ -24698,7 +24736,7 @@
       <c r="AG682" s="4"/>
       <c r="AH682" s="4"/>
     </row>
-    <row r="683" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:34">
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
@@ -24732,7 +24770,7 @@
       <c r="AG683" s="4"/>
       <c r="AH683" s="4"/>
     </row>
-    <row r="684" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:34">
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
@@ -24766,7 +24804,7 @@
       <c r="AG684" s="4"/>
       <c r="AH684" s="4"/>
     </row>
-    <row r="685" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:34">
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
@@ -24800,7 +24838,7 @@
       <c r="AG685" s="4"/>
       <c r="AH685" s="4"/>
     </row>
-    <row r="686" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:34">
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
@@ -24834,7 +24872,7 @@
       <c r="AG686" s="4"/>
       <c r="AH686" s="4"/>
     </row>
-    <row r="687" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:34">
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
@@ -24868,7 +24906,7 @@
       <c r="AG687" s="4"/>
       <c r="AH687" s="4"/>
     </row>
-    <row r="688" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:34">
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
@@ -24902,7 +24940,7 @@
       <c r="AG688" s="4"/>
       <c r="AH688" s="4"/>
     </row>
-    <row r="689" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:34">
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
@@ -24936,7 +24974,7 @@
       <c r="AG689" s="4"/>
       <c r="AH689" s="4"/>
     </row>
-    <row r="690" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:34">
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
@@ -24970,7 +25008,7 @@
       <c r="AG690" s="4"/>
       <c r="AH690" s="4"/>
     </row>
-    <row r="691" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:34">
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
@@ -25004,7 +25042,7 @@
       <c r="AG691" s="4"/>
       <c r="AH691" s="4"/>
     </row>
-    <row r="692" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:34">
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
@@ -25038,7 +25076,7 @@
       <c r="AG692" s="4"/>
       <c r="AH692" s="4"/>
     </row>
-    <row r="693" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:34">
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
@@ -25072,7 +25110,7 @@
       <c r="AG693" s="4"/>
       <c r="AH693" s="4"/>
     </row>
-    <row r="694" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:34">
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
@@ -25106,7 +25144,7 @@
       <c r="AG694" s="4"/>
       <c r="AH694" s="4"/>
     </row>
-    <row r="695" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:34">
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
@@ -25140,7 +25178,7 @@
       <c r="AG695" s="4"/>
       <c r="AH695" s="4"/>
     </row>
-    <row r="696" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:34">
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
@@ -25174,7 +25212,7 @@
       <c r="AG696" s="4"/>
       <c r="AH696" s="4"/>
     </row>
-    <row r="697" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:34">
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
@@ -25208,7 +25246,7 @@
       <c r="AG697" s="4"/>
       <c r="AH697" s="4"/>
     </row>
-    <row r="698" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:34">
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
@@ -25242,7 +25280,7 @@
       <c r="AG698" s="4"/>
       <c r="AH698" s="4"/>
     </row>
-    <row r="699" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:34">
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
@@ -25276,7 +25314,7 @@
       <c r="AG699" s="4"/>
       <c r="AH699" s="4"/>
     </row>
-    <row r="700" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:34">
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
@@ -25310,7 +25348,7 @@
       <c r="AG700" s="4"/>
       <c r="AH700" s="4"/>
     </row>
-    <row r="701" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:34">
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
@@ -25344,7 +25382,7 @@
       <c r="AG701" s="4"/>
       <c r="AH701" s="4"/>
     </row>
-    <row r="702" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:34">
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
@@ -25378,7 +25416,7 @@
       <c r="AG702" s="4"/>
       <c r="AH702" s="4"/>
     </row>
-    <row r="703" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:34">
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
@@ -25412,7 +25450,7 @@
       <c r="AG703" s="4"/>
       <c r="AH703" s="4"/>
     </row>
-    <row r="704" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:34">
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
